--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_15.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514378</v>
+        <v>925399.3994514379</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5283674.776931894</v>
+        <v>5283674.776931893</v>
       </c>
     </row>
     <row r="11">
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>202.2946864288972</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W2" t="n">
         <v>241.0142888776591</v>
@@ -738,16 +738,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>146.1932996118735</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>123.6003327477366</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -759,7 +759,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -832,16 +832,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>241.0142888776591</v>
@@ -914,10 +914,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -972,19 +972,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>145.4467082856156</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -993,7 +993,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>39.83019755615048</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V8" t="n">
-        <v>112.3289263072337</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>28.88985408777983</v>
+        <v>118.3634851578964</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1303,46 +1303,46 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>120.9273370453295</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,22 +1412,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>19.72793538656374</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>146.1932996118735</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1458,16 +1458,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>85.31372784089217</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1549,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.82778746869526</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>241.0142888776591</v>
@@ -1622,58 +1622,58 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="Y14" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I14" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1731,16 +1731,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="S15" t="n">
-        <v>34.66067414728066</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1749,10 +1749,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1783,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1853,16 +1853,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -1889,25 +1889,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>68.3854176612075</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1929,10 +1929,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>78.98946446248301</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -1986,10 +1986,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>131.0193938670496</v>
       </c>
     </row>
     <row r="19">
@@ -2050,16 +2050,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="D20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="G20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2144,10 +2144,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="Y20" t="n">
-        <v>212.285385643442</v>
+        <v>241.014288877659</v>
       </c>
     </row>
     <row r="21">
@@ -2166,10 +2166,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>84.56713651463426</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>36.43923176655743</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2223,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2299,10 +2299,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,31 +2315,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>200.3360962888297</v>
+        <v>241.014288877659</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>62.41626770229252</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2381,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2397,13 +2397,13 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>109.4031921034048</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2451,13 +2451,13 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>49.31110394229507</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -2485,13 +2485,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2552,76 +2552,76 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
+      <c r="X26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
       <c r="Y26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,28 +2631,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>98.47382483861915</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>68.31015748716332</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -2682,16 +2682,16 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2700,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2728,40 +2728,40 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2798,67 +2798,67 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="30">
@@ -2868,16 +2868,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>123.7922091700869</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2937,7 +2937,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>50.84530204350681</v>
       </c>
     </row>
     <row r="31">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,64 +3026,64 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>112.3289263072337</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S32" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T32" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3156,16 +3156,16 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
@@ -3174,7 +3174,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>144.1493081031292</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,70 +3263,70 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>212.285385643442</v>
       </c>
       <c r="X35" t="n">
         <v>241.0142888776591</v>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3354,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3396,19 +3396,19 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>156.0235939482764</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>34.66067414728059</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3509,22 +3509,22 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F38" t="n">
-        <v>58.39471844666277</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3545,16 +3545,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3588,7 +3588,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>49.3111039422953</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3648,7 +3648,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3737,76 +3737,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R41" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="42">
@@ -3816,22 +3816,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3867,25 +3867,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>7.837102735344149</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="43">
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4022,13 +4022,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>241.0142888776591</v>
@@ -4037,7 +4037,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4056,22 +4056,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>68.31015748716329</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>1.197928092376224</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4116,13 +4116,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4135,64 +4135,64 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4349,19 +4349,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
         <v>749.627473042513</v>
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="C3" t="n">
-        <v>816.3871559026832</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="D3" t="n">
-        <v>667.4527462414319</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="E3" t="n">
-        <v>508.2152912359765</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="F3" t="n">
-        <v>361.6807332628614</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>222.9499078454769</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M3" t="n">
-        <v>383.2428491569326</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N3" t="n">
-        <v>621.8469951458151</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O3" t="n">
-        <v>860.4511411346975</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
         <v>964.0571555106362</v>
@@ -4431,28 +4431,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y3" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4507,31 +4507,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4550,19 +4550,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="E5" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F5" t="n">
-        <v>718.7806050553886</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G5" t="n">
-        <v>475.3318284112885</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H5" t="n">
-        <v>231.8830517671884</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.0571555106362</v>
+        <v>486.820788837921</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>312.367759556794</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>312.367759556794</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>312.367759556794</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>312.367759556794</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>173.6369341394095</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>60.26779854698883</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4647,49 +4647,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>19.28114311021272</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M6" t="n">
-        <v>257.8852890990952</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N6" t="n">
-        <v>496.4894350879777</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>655.0361258579891</v>
       </c>
       <c r="Y6" t="n">
-        <v>964.0571555106362</v>
+        <v>655.0361258579891</v>
       </c>
     </row>
     <row r="7">
@@ -4714,10 +4714,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
         <v>19.28114311021272</v>
@@ -4778,7 +4778,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C8" t="n">
         <v>19.28114311021272</v>
@@ -4826,28 +4826,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>132.7447050367114</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X8" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>222.9499078454769</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C9" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
         <v>19.28114311021272</v>
@@ -4884,49 +4884,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>458.1020160772196</v>
+        <v>844.4980795935692</v>
       </c>
       <c r="V9" t="n">
-        <v>222.9499078454769</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="W9" t="n">
-        <v>222.9499078454769</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="X9" t="n">
-        <v>222.9499078454769</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y9" t="n">
-        <v>222.9499078454769</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
         <v>19.28114311021272</v>
@@ -4990,22 +4990,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>231.8830517671884</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C11" t="n">
-        <v>231.8830517671884</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D11" t="n">
-        <v>231.8830517671884</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E11" t="n">
-        <v>231.8830517671884</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F11" t="n">
-        <v>231.8830517671884</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="G11" t="n">
-        <v>231.8830517671884</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="H11" t="n">
-        <v>231.8830517671884</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5060,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>944.1299480494607</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T11" t="n">
-        <v>718.7806050553886</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U11" t="n">
-        <v>475.3318284112885</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V11" t="n">
-        <v>231.8830517671884</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W11" t="n">
-        <v>231.8830517671884</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X11" t="n">
-        <v>231.8830517671884</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y11" t="n">
-        <v>231.8830517671884</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>501.9060370580465</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C12" t="n">
-        <v>327.4530077769195</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="D12" t="n">
-        <v>178.5185981156682</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I12" t="n">
         <v>19.28114311021272</v>
@@ -5127,13 +5127,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N12" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O12" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P12" t="n">
         <v>964.0571555106362</v>
@@ -5145,25 +5145,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>877.8816728430684</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>877.8816728430684</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>877.8816728430684</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>877.8816728430684</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W12" t="n">
-        <v>877.8816728430684</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X12" t="n">
-        <v>877.8816728430684</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y12" t="n">
-        <v>670.1213740781145</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
         <v>19.28114311021272</v>
@@ -5218,31 +5218,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>113.583345248266</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R13" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S13" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T13" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C14" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D14" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E14" t="n">
-        <v>962.2293816994886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F14" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G14" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
         <v>19.28114311021272</v>
@@ -5318,10 +5318,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="15">
@@ -5358,46 +5358,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>65.60123993063803</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>65.60123993063803</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N15" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="S15" t="n">
-        <v>929.0463735436861</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="T15" t="n">
-        <v>726.8597789024521</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="U15" t="n">
-        <v>498.6361606388412</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V15" t="n">
-        <v>263.4840524070985</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W15" t="n">
-        <v>20.03527576299844</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X15" t="n">
-        <v>20.03527576299844</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y15" t="n">
         <v>20.03527576299844</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5464,22 +5464,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F17" t="n">
-        <v>720.6083788665362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I17" t="n">
         <v>31.35113235729608</v>
@@ -5537,28 +5537,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="18">
@@ -5568,16 +5568,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>259.0600686093459</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C18" t="n">
-        <v>259.0600686093459</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D18" t="n">
-        <v>259.0600686093459</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E18" t="n">
-        <v>99.82261360389037</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F18" t="n">
         <v>20.03527576299844</v>
@@ -5595,49 +5595,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>234.810827406191</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V18" t="n">
-        <v>259.0600686093459</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W18" t="n">
-        <v>259.0600686093459</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X18" t="n">
-        <v>259.0600686093459</v>
+        <v>152.3780978509273</v>
       </c>
       <c r="Y18" t="n">
-        <v>259.0600686093459</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="19">
@@ -5698,13 +5698,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
         <v>19.28114311021272</v>
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>467.0679868542089</v>
       </c>
       <c r="C20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5762,40 +5762,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N20" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O20" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P20" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>710.5167634983089</v>
       </c>
       <c r="Y20" t="n">
-        <v>749.627473042513</v>
+        <v>467.0679868542089</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>588.0815197256143</v>
+        <v>343.4227147053767</v>
       </c>
       <c r="C21" t="n">
-        <v>413.6284904444873</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D21" t="n">
-        <v>264.694080783236</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="E21" t="n">
-        <v>105.4566257777805</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="F21" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363992</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252816</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217535</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>964.057155510636</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q21" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>927.2498506959315</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>927.2498506959315</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>927.2498506959315</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>927.2498506959315</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>927.2498506959315</v>
       </c>
       <c r="W21" t="n">
-        <v>964.0571555106362</v>
+        <v>927.2498506959315</v>
       </c>
       <c r="X21" t="n">
-        <v>964.0571555106362</v>
+        <v>719.3983504903987</v>
       </c>
       <c r="Y21" t="n">
-        <v>756.2968567456824</v>
+        <v>511.6380517254448</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>856.8389900280782</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>896.0270282203004</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>939.7178788757367</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="X22" t="n">
-        <v>829.5248650203655</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="Y22" t="n">
-        <v>829.5248650203655</v>
+        <v>829.5248650203653</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>518.2486856454962</v>
+        <v>569.2254314512335</v>
       </c>
       <c r="C23" t="n">
-        <v>518.2486856454962</v>
+        <v>325.7766548071335</v>
       </c>
       <c r="D23" t="n">
-        <v>518.2486856454962</v>
+        <v>82.32787816303346</v>
       </c>
       <c r="E23" t="n">
-        <v>518.2486856454962</v>
+        <v>82.32787816303346</v>
       </c>
       <c r="F23" t="n">
-        <v>274.7999090013961</v>
+        <v>82.32787816303346</v>
       </c>
       <c r="G23" t="n">
-        <v>31.35113235729608</v>
+        <v>82.32787816303346</v>
       </c>
       <c r="H23" t="n">
-        <v>31.35113235729608</v>
+        <v>82.32787816303346</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6011,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X23" t="n">
-        <v>720.6083788665362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y23" t="n">
-        <v>720.6083788665362</v>
+        <v>812.6742080953335</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>304.9965798960495</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="C24" t="n">
-        <v>130.5435506149225</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="D24" t="n">
-        <v>130.5435506149225</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="E24" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="F24" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217535</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>964.057155510636</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q24" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W24" t="n">
-        <v>720.6083788665362</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X24" t="n">
-        <v>512.7568786610034</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y24" t="n">
-        <v>304.9965798960495</v>
+        <v>20.03527576299843</v>
       </c>
     </row>
     <row r="25">
@@ -6133,10 +6133,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="F25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
         <v>19.28114311021272</v>
@@ -6203,10 +6203,10 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W26" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>119.5037857009976</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="C27" t="n">
-        <v>20.03527576299844</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="D27" t="n">
-        <v>20.03527576299844</v>
+        <v>646.9074088293169</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>487.6699538238614</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>341.1353958507464</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>202.4045704333619</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>89.03543484094119</v>
       </c>
       <c r="I27" t="n">
         <v>20.03527576299844</v>
@@ -6312,16 +6312,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6330,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>562.4161926976942</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>327.2640844659515</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W27" t="n">
-        <v>327.2640844659515</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X27" t="n">
-        <v>327.2640844659515</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y27" t="n">
-        <v>119.5037857009976</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
         <v>19.28114311021272</v>
@@ -6409,25 +6409,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6437,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K29" t="n">
         <v>122.2961490211351</v>
@@ -6497,16 +6497,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y29" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,13 +6516,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>145.0779112883388</v>
+        <v>502.6601697108322</v>
       </c>
       <c r="C30" t="n">
-        <v>20.03527576299844</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="D30" t="n">
-        <v>20.03527576299844</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E30" t="n">
         <v>20.03527576299844</v>
@@ -6546,19 +6546,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M30" t="n">
-        <v>374.6018090363993</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6570,22 +6570,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V30" t="n">
-        <v>728.9050472788936</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W30" t="n">
-        <v>728.9050472788936</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X30" t="n">
-        <v>521.0535470733607</v>
+        <v>554.0190606638694</v>
       </c>
       <c r="Y30" t="n">
-        <v>313.2932483084068</v>
+        <v>502.6601697108322</v>
       </c>
     </row>
     <row r="31">
@@ -6664,7 +6664,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>720.6083788665362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="C32" t="n">
-        <v>477.1596022224361</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="D32" t="n">
-        <v>477.1596022224361</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6722,28 +6722,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="Y32" t="n">
-        <v>964.0571555106362</v>
+        <v>132.7447050367114</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>193.7341723913397</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6786,16 +6786,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6804,25 +6804,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>790.6398109613051</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V33" t="n">
-        <v>790.6398109613051</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W33" t="n">
-        <v>547.1910343172051</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X33" t="n">
-        <v>339.3395341116723</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y33" t="n">
-        <v>193.7341723913397</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6932,10 +6932,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K35" t="n">
         <v>122.2961490211351</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W35" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X35" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y35" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5698337361135</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C36" t="n">
-        <v>166.5698337361135</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D36" t="n">
-        <v>166.5698337361135</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E36" t="n">
-        <v>166.5698337361135</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
         <v>20.03527576299844</v>
@@ -7044,22 +7044,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>806.4575656638924</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U36" t="n">
-        <v>578.2339474002815</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V36" t="n">
-        <v>578.2339474002815</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W36" t="n">
-        <v>334.7851707561815</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X36" t="n">
-        <v>334.7851707561815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y36" t="n">
-        <v>334.7851707561815</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="37">
@@ -7117,13 +7117,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
         <v>19.28114311021272</v>
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>577.2332497330343</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C38" t="n">
-        <v>577.2332497330343</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D38" t="n">
-        <v>577.2332497330343</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E38" t="n">
-        <v>577.2332497330343</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F38" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>577.2332497330343</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>577.2332497330343</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>577.2332497330343</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>577.2332497330343</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>577.2332497330343</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>577.2332497330343</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20.03527576299844</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C39" t="n">
-        <v>20.03527576299844</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D39" t="n">
-        <v>20.03527576299844</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E39" t="n">
         <v>20.03527576299844</v>
@@ -7260,16 +7260,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>417.4543050195419</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N39" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7284,19 +7284,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>914.2479596093278</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>679.0958513775852</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>435.6470747334852</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>227.7955745279523</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y39" t="n">
-        <v>20.03527576299844</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7385,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C41" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
         <v>19.28114311021272</v>
@@ -7409,7 +7409,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K41" t="n">
         <v>122.2961490211351</v>
@@ -7430,31 +7430,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>559.1338160830064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X41" t="n">
-        <v>559.1338160830064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y41" t="n">
-        <v>315.6850394389064</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>787.9255531013317</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C42" t="n">
-        <v>613.4725238202047</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D42" t="n">
-        <v>464.5381141589534</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E42" t="n">
-        <v>305.3006591534979</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F42" t="n">
-        <v>158.7661011803829</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G42" t="n">
         <v>20.03527576299844</v>
@@ -7491,22 +7491,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M42" t="n">
-        <v>542.809531908403</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N42" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7515,25 +7515,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>956.1408901213997</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>956.1408901213997</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>956.1408901213997</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V42" t="n">
-        <v>956.1408901213997</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W42" t="n">
-        <v>956.1408901213997</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X42" t="n">
-        <v>956.1408901213997</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y42" t="n">
-        <v>956.1408901213997</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="43">
@@ -7588,25 +7588,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
         <v>19.28114311021272</v>
@@ -7670,19 +7670,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T44" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U44" t="n">
-        <v>506.1786963984129</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="V44" t="n">
-        <v>262.7299197543128</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="W44" t="n">
         <v>262.7299197543128</v>
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>344.6327430815143</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="C45" t="n">
-        <v>170.1797138003873</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="D45" t="n">
-        <v>21.24530413913604</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E45" t="n">
-        <v>20.03527576299844</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F45" t="n">
-        <v>20.03527576299844</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G45" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H45" t="n">
         <v>20.03527576299844</v>
@@ -7728,19 +7728,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M45" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N45" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
         <v>894.6625969973069</v>
@@ -7764,13 +7764,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W45" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X45" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y45" t="n">
-        <v>512.8480801015824</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="46">
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
         <v>19.28114311021272</v>
@@ -7840,16 +7840,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -8058,10 +8058,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
@@ -8073,7 +8073,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>238.6269471880057</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8295,10 +8295,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
@@ -8307,13 +8307,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>360.302996258564</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,16 +8532,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>231.1529892133073</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8775,16 +8775,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -9006,25 +9006,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>184.6294155606472</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,13 +9243,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>359.8407857361378</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
@@ -9258,10 +9258,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,22 +9480,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N21" t="n">
-        <v>186.8580120236956</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9717,22 +9717,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N24" t="n">
-        <v>301.248502863135</v>
+        <v>371.3463732493022</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9960,19 +9960,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,13 +10194,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10434,10 +10434,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N33" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10908,7 +10908,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>312.0431814381598</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
@@ -10917,10 +10917,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,16 +11139,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>312.04082470182</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,22 +11376,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>174.6270615612551</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22589,7 +22589,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22604,7 +22604,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>125.4575720412377</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W2" t="n">
         <v>108.226679839754</v>
@@ -22626,16 +22626,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>26.51519937644221</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>21.46887964564732</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -22647,7 +22647,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,13 +22671,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -22720,16 +22720,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>115.2022481737659</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22747,7 +22747,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -22790,7 +22790,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>165.8617568640524</v>
@@ -22802,10 +22802,10 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22860,19 +22860,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>27.26179070270013</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -22881,7 +22881,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>49.5664352952646</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22908,7 +22908,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22926,7 +22926,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22954,13 +22954,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -23018,10 +23018,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23066,28 +23066,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>215.4233321629012</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23100,7 +23100,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23115,10 +23115,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23145,16 +23145,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>197.051527993195</v>
+        <v>107.5778969230785</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -23163,10 +23163,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23191,7 +23191,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -23230,7 +23230,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23273,13 +23273,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>218.5474650704376</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,22 +23300,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>189.2921341996816</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23334,10 +23334,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>26.51519937644221</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23346,16 +23346,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23385,7 +23385,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>86.36944326294565</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
@@ -23403,7 +23403,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23437,7 +23437,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -23458,10 +23458,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.33425578299913</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23501,7 +23501,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>165.8617568640524</v>
@@ -23510,10 +23510,10 @@
         <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23558,10 +23558,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="15">
@@ -23619,16 +23619,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>50.84673021034784</v>
       </c>
       <c r="S15" t="n">
-        <v>137.0224969565572</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23637,10 +23637,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23671,13 +23671,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23741,16 +23741,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,25 +23777,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>301.3456830172615</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23817,10 +23817,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>66.07974793090087</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
@@ -23856,7 +23856,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23874,10 +23874,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>74.66330191025477</v>
       </c>
     </row>
     <row r="19">
@@ -23938,7 +23938,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23947,7 +23947,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23966,22 +23966,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24011,7 +24011,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24032,10 +24032,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>173.9525530126116</v>
+        <v>145.2236497783946</v>
       </c>
     </row>
     <row r="21">
@@ -24054,10 +24054,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>60.50207587874962</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
@@ -24093,7 +24093,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>63.7186023860857</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24111,7 +24111,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24187,10 +24187,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24203,31 +24203,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>182.3977453746509</v>
+        <v>141.7195527858216</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933486</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.668752743024</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>148.0596218681134</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24251,7 +24251,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24269,7 +24269,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24285,13 +24285,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>48.24188835199618</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24339,13 +24339,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>176.6302781386798</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>10.68069428326061</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24373,13 +24373,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G25" t="n">
         <v>167.9909793584588</v>
       </c>
       <c r="H25" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I25" t="n">
         <v>155.4504749272583</v>
@@ -24440,16 +24440,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24485,7 +24485,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24500,16 +24500,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,28 +24519,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>74.23467414969659</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>21.08647536425175</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24570,16 +24570,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -24588,7 +24588,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24616,7 +24616,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I28" t="n">
         <v>155.4504749272583</v>
@@ -24649,7 +24649,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24686,10 +24686,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>181.5942737834322</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24701,7 +24701,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24737,16 +24737,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="30">
@@ -24756,16 +24756,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>48.9162898182288</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24810,13 +24810,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -24825,7 +24825,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>154.8373937337975</v>
       </c>
     </row>
     <row r="31">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24914,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>98.14696326317221</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24962,16 +24962,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24996,7 +24996,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25017,7 +25017,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25044,16 +25044,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
@@ -25062,7 +25062,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>61.53338767417517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25120,7 +25120,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25135,7 +25135,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25151,22 +25151,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>213.0080510862378</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25196,7 +25196,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25214,7 +25214,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>136.955583073971</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
         <v>128.71681180081</v>
@@ -25230,7 +25230,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25242,7 +25242,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -25284,19 +25284,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>44.14113474654525</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>171.1123110561969</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25357,7 +25357,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25366,7 +25366,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25397,22 +25397,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F38" t="n">
-        <v>348.4813272950487</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,16 +25433,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25476,7 +25476,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>128.5926628167762</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25524,7 +25524,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>176.6302781386795</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25536,7 +25536,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25561,7 +25561,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H40" t="n">
         <v>162.2271725074396</v>
@@ -25603,7 +25603,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25625,19 +25625,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>330.3082731757329</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
@@ -25670,10 +25670,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -25682,19 +25682,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="42">
@@ -25704,22 +25704,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25755,25 +25755,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>163.8460683684937</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="43">
@@ -25828,7 +25828,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25840,7 +25840,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25849,7 +25849,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>178.6847310553635</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25910,13 +25910,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>10.33136403017744</v>
@@ -25925,7 +25925,7 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>286.8247010151207</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25944,22 +25944,22 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>104.3983415011524</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>156.4471523630247</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -26004,13 +26004,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26023,7 +26023,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26080,7 +26080,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>456941.8494611643</v>
+        <v>456941.8494611644</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>456941.8494611644</v>
+        <v>456941.8494611643</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>456941.8494611643</v>
+        <v>456941.8494611644</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>456941.8494611643</v>
+        <v>456941.8494611644</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>456941.8494611645</v>
+        <v>456941.8494611643</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>456941.8494611644</v>
+        <v>456941.8494611643</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>456941.8494611644</v>
+        <v>456941.8494611642</v>
       </c>
     </row>
     <row r="16">
@@ -26341,7 +26341,7 @@
         <v>124620.5043984993</v>
       </c>
       <c r="L2" t="n">
-        <v>124620.5043984993</v>
+        <v>124620.5043984994</v>
       </c>
       <c r="M2" t="n">
         <v>124620.5043984993</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910625</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26519,13 +26519,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4609.728394514095</v>
+        <v>-4609.728394514081</v>
       </c>
       <c r="C6" t="n">
+        <v>76159.70313703366</v>
+      </c>
+      <c r="D6" t="n">
         <v>76159.70313703365</v>
-      </c>
-      <c r="D6" t="n">
-        <v>76159.70313703368</v>
       </c>
       <c r="E6" t="n">
         <v>109787.3031370336</v>
@@ -26543,7 +26543,7 @@
         <v>109787.3031370337</v>
       </c>
       <c r="J6" t="n">
-        <v>46727.36053792744</v>
+        <v>46727.36053792739</v>
       </c>
       <c r="K6" t="n">
         <v>109787.3031370337</v>
@@ -26552,13 +26552,13 @@
         <v>109787.3031370337</v>
       </c>
       <c r="M6" t="n">
-        <v>109787.3031370336</v>
+        <v>109787.3031370337</v>
       </c>
       <c r="N6" t="n">
-        <v>109787.3031370336</v>
+        <v>109787.3031370337</v>
       </c>
       <c r="O6" t="n">
-        <v>109787.3031370336</v>
+        <v>109787.3031370337</v>
       </c>
       <c r="P6" t="n">
         <v>109787.3031370336</v>
@@ -26805,10 +26805,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="I4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="J4" t="n">
         <v>241.0142888776591</v>
@@ -34708,7 +34708,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34778,10 +34778,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
@@ -34793,7 +34793,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>104.6525397736754</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
@@ -35027,13 +35027,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,16 +35252,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>99.81127712997396</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35270,7 +35270,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35495,16 +35495,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,13 +35963,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>217.7067518141195</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
@@ -35978,10 +35978,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N21" t="n">
-        <v>55.51629994036225</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9067907798017</v>
+        <v>240.0046611659689</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36680,19 +36680,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,13 +36914,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36929,7 +36929,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37154,10 +37154,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N33" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37166,7 +37166,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37318,7 +37318,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P35" t="n">
         <v>90.5657124162131</v>
@@ -37628,7 +37628,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>169.9091475161415</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
@@ -37637,10 +37637,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37859,16 +37859,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>169.9067907798017</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -37877,7 +37877,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N45" t="n">
-        <v>43.28534947792182</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>70.09551364982758</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>727085.3022933751</v>
+        <v>653006.5266837373</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>421275.8912134275</v>
+        <v>196744.2971796655</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12665478.15985334</v>
+        <v>10947499.68099519</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7410026.6682005</v>
+        <v>8218487.197793873</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -712,16 +712,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>145.4467082856156</v>
+        <v>62.07749986335751</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -840,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>14.83685490770591</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -901,13 +901,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>241.0142888776591</v>
@@ -977,28 +977,28 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1077,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,76 +1132,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D8" t="n">
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1214,28 +1214,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1265,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>70.64856914772001</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>231.8635835046281</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>223.6631969253889</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>263.2420339516669</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>34.72138959185913</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.2940166796957</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>111.757373777286</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>87.69233988828962</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T12" t="n">
-        <v>199.9652070090748</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R13" t="n">
-        <v>159.8350691069752</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1587,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>161.1773868592355</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,13 +1615,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>121.2547094525073</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>263.2420339516666</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>144.0576027644701</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S14" t="n">
-        <v>206.9118586999128</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>222.6908602868995</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>184.6873296566787</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1697,16 +1697,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>111.757373777286</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>39.56235745390167</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9381254702172</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1767,16 +1767,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>68.25327490405893</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1809,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>82.68702246598919</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>77.14804664098575</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>38.19053515138876</v>
+        <v>237.1298127151658</v>
       </c>
       <c r="F17" t="n">
-        <v>276.1565137023554</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>276.1565137023554</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>205.0481221176458</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1922,28 +1922,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T18" t="n">
-        <v>175.7569470849741</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>22.11041309544132</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>175.1311939478778</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,16 +2083,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>288.5538207718573</v>
       </c>
       <c r="E20" t="n">
-        <v>14.89518631743318</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2128,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T21" t="n">
         <v>196.8897623984489</v>
@@ -2244,13 +2244,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>85.87170836083652</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2295,10 +2295,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2323,16 +2323,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>307.1861186321482</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>88.33143849240152</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2402,7 +2402,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646384</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -2456,7 +2456,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>232.800587149425</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.1622158054969</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>155.2114886365804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>153.0231909947327</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2563,19 +2563,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>138.086936143297</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>43.31785343913986</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>68.19029374363589</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>219.3573038660103</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2809,10 +2809,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>21.82304018643375</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250796</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>9.764863467406323</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>68.43141783824922</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>163.3224055697213</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>115.3010325189712</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>216.4483203576578</v>
@@ -3094,10 +3094,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3122,7 +3122,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H33" t="n">
         <v>104.3883541553076</v>
@@ -3192,25 +3192,25 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>118.243633554152</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>219.7476702878886</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>153.5271835984416</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>333.4881785810122</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498671</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3429,13 +3429,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>93.95831792021254</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.7638929249313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>339.0399185806816</v>
+        <v>333.8234735964318</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H39" t="n">
-        <v>104.3883541553078</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
         <v>61.42221998250818</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>129.024624796403</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>10.46499054460254</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3748,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>80.64322637446583</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>107.3013038024365</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3833,7 +3833,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H42" t="n">
         <v>104.3883541553076</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3942,16 +3942,16 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>15.57897922163638</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>189.0513489387725</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3982,16 +3982,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>396.6749956049802</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4039,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>292.1380595743623</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4137,22 +4137,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>70.80276983270117</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>190.2713935802969</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="U2" t="n">
         <v>749.627473042513</v>
       </c>
-      <c r="U2" t="n">
-        <v>506.1786963984129</v>
-      </c>
       <c r="V2" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W2" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X2" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="3">
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C3" t="n">
-        <v>817.1412885554689</v>
+        <v>657.9038335500135</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="E3" t="n">
         <v>508.9694238887622</v>
@@ -4412,22 +4412,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4448,13 +4448,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y3" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>136.0777814360265</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V5" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W5" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="X5" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="Y5" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="X5" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="6">
@@ -4622,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
         <v>712.019119383956</v>
@@ -4679,19 +4679,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y6" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C8" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D8" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4895,13 +4895,13 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4913,22 +4913,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="C10" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="D10" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="E10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>286.9604071117565</v>
+        <v>1547.452423968253</v>
       </c>
       <c r="C11" t="n">
-        <v>286.9604071117565</v>
+        <v>1178.489907027842</v>
       </c>
       <c r="D11" t="n">
-        <v>21.05936271613335</v>
+        <v>1178.489907027842</v>
       </c>
       <c r="E11" t="n">
-        <v>21.05936271613335</v>
+        <v>1178.489907027842</v>
       </c>
       <c r="F11" t="n">
-        <v>21.05936271613335</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G11" t="n">
-        <v>21.05936271613335</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H11" t="n">
-        <v>21.05936271613335</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
-        <v>21.05936271613335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>21.05936271613335</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K11" t="n">
-        <v>135.7250809573684</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L11" t="n">
-        <v>330.2546714142364</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
-        <v>563.3128681098028</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>785.5101925369336</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
-        <v>950.1371873885148</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>1052.968135806668</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q11" t="n">
-        <v>1052.968135806668</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>1052.968135806668</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>1052.968135806668</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>1052.968135806668</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U11" t="n">
-        <v>1052.968135806668</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V11" t="n">
-        <v>787.0670914110444</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W11" t="n">
-        <v>521.1660470154213</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X11" t="n">
-        <v>521.1660470154213</v>
+        <v>1937.591755944065</v>
       </c>
       <c r="Y11" t="n">
-        <v>521.1660470154213</v>
+        <v>1547.452423968253</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>850.9830782217434</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>815.9109675228958</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>666.9765578616446</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>507.7391028561891</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>361.204544883074</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>222.5237199540885</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
-        <v>109.6374838154158</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>21.05936271613335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>21.05936271613335</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>21.05936271613335</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>21.05936271613335</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>275.9536685529086</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>536.5632821650588</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>785.316696249021</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>977.3180709271197</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>1052.968135806668</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>1052.968135806668</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>1052.968135806668</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>850.9830782217434</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
-        <v>850.9830782217434</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>850.9830782217434</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
-        <v>850.9830782217434</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X12" t="n">
-        <v>850.9830782217434</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
-        <v>850.9830782217434</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>21.05936271613335</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="C13" t="n">
-        <v>21.05936271613335</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="D13" t="n">
-        <v>21.05936271613335</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="E13" t="n">
-        <v>21.05936271613335</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F13" t="n">
-        <v>21.05936271613335</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G13" t="n">
-        <v>21.05936271613335</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H13" t="n">
-        <v>21.05936271613335</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I13" t="n">
-        <v>21.05936271613335</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J13" t="n">
-        <v>21.05936271613335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
-        <v>21.05936271613335</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>54.48163939360305</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>100.1098670955241</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>150.08777394865</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>180.2341645716486</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>182.5089274706538</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>182.5089274706538</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R13" t="n">
-        <v>21.05936271613335</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S13" t="n">
-        <v>21.05936271613335</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T13" t="n">
-        <v>21.05936271613335</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U13" t="n">
-        <v>21.05936271613335</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V13" t="n">
-        <v>21.05936271613335</v>
+        <v>535.9066237881011</v>
       </c>
       <c r="W13" t="n">
-        <v>21.05936271613335</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="X13" t="n">
-        <v>21.05936271613335</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="Y13" t="n">
-        <v>21.05936271613335</v>
+        <v>246.4894537511405</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>286.9604071117561</v>
+        <v>1005.372199209267</v>
       </c>
       <c r="C14" t="n">
-        <v>286.9604071117561</v>
+        <v>1005.372199209267</v>
       </c>
       <c r="D14" t="n">
-        <v>286.9604071117561</v>
+        <v>1005.372199209267</v>
       </c>
       <c r="E14" t="n">
-        <v>286.9604071117561</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F14" t="n">
-        <v>286.9604071117561</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G14" t="n">
-        <v>21.05936271613333</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>21.05936271613333</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
-        <v>21.05936271613333</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>21.05936271613333</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>135.7250809573682</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>330.2546714142361</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M14" t="n">
-        <v>563.3128681098024</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>785.5101925369329</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O14" t="n">
-        <v>950.137187388514</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>1052.968135806667</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q14" t="n">
-        <v>1052.968135806666</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>907.4554057415451</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>698.4535282668857</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
-        <v>473.5132653508255</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U14" t="n">
-        <v>473.5132653508255</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V14" t="n">
-        <v>286.9604071117561</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W14" t="n">
-        <v>286.9604071117561</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X14" t="n">
-        <v>286.9604071117561</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="Y14" t="n">
-        <v>286.9604071117561</v>
+        <v>1391.972039273389</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>656.5324700288031</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>482.0794407476761</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>333.1450310864249</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>173.9075760809694</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>173.9075760809694</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>173.9075760809694</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
-        <v>61.02133994229663</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>21.05936271613333</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>21.05936271613333</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>154.3302328992135</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>394.933760794076</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>600.5536970360757</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>600.5536970360757</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
-        <v>860.9667611285678</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P15" t="n">
-        <v>1052.968135806666</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q15" t="n">
-        <v>1052.968135806666</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>1052.968135806666</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
-        <v>1052.968135806666</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>1052.968135806666</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
-        <v>824.7478070488712</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>824.7478070488712</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
-        <v>824.7478070488712</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X15" t="n">
-        <v>824.7478070488712</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y15" t="n">
-        <v>824.7478070488712</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21.05936271613333</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C16" t="n">
-        <v>21.05936271613333</v>
+        <v>269.7756312415667</v>
       </c>
       <c r="D16" t="n">
-        <v>21.05936271613333</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E16" t="n">
-        <v>21.05936271613333</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F16" t="n">
-        <v>21.05936271613333</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>21.05936271613333</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>21.05936271613333</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>21.05936271613333</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>21.05936271613333</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
-        <v>21.05936271613333</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>54.48163939360296</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>100.1098670955239</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>150.0877739486497</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>180.2341645716483</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>182.5089274706535</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>98.98668255551287</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>21.05936271613333</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>21.05936271613333</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>21.05936271613333</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U16" t="n">
-        <v>21.05936271613333</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V16" t="n">
-        <v>21.05936271613333</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W16" t="n">
-        <v>21.05936271613333</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X16" t="n">
-        <v>21.05936271613333</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y16" t="n">
-        <v>21.05936271613333</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1104.626054809422</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="C17" t="n">
-        <v>1104.626054809422</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="D17" t="n">
-        <v>1104.626054809422</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="E17" t="n">
-        <v>1066.049756676706</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F17" t="n">
-        <v>787.1037832399832</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G17" t="n">
-        <v>508.1578098032604</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H17" t="n">
-        <v>229.2118363665377</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>22.09252109618843</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>142.8373253438683</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>344.9085595412868</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
-        <v>586.3582880173956</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>817.0829279823541</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O17" t="n">
-        <v>989.7620250901062</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>1099.465256491931</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q17" t="n">
-        <v>1104.626054809422</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>1104.626054809422</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>1104.626054809422</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T17" t="n">
-        <v>1104.626054809422</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U17" t="n">
-        <v>1104.626054809422</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V17" t="n">
-        <v>1104.626054809422</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W17" t="n">
-        <v>1104.626054809422</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X17" t="n">
-        <v>1104.626054809422</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y17" t="n">
-        <v>1104.626054809422</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>22.09252109618843</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>22.09252109618843</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>22.09252109618843</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>22.09252109618843</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>22.09252109618843</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>22.09252109618843</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
-        <v>22.09252109618843</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>28.39914141318534</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>28.39914141318534</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>274.5546080058863</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>288.9361218459457</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>562.3310704112776</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>828.8278839945614</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>1025.71200399185</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q18" t="n">
-        <v>1104.626054809422</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>1104.626054809422</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>1104.626054809422</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>927.0937850266196</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
-        <v>927.0937850266196</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>691.9416767948768</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
-        <v>437.7043200666752</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X18" t="n">
-        <v>229.8528198611423</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
-        <v>22.09252109618843</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>22.09252109618843</v>
+        <v>76.27673242182033</v>
       </c>
       <c r="C19" t="n">
-        <v>22.09252109618843</v>
+        <v>76.27673242182033</v>
       </c>
       <c r="D19" t="n">
-        <v>22.09252109618843</v>
+        <v>76.27673242182033</v>
       </c>
       <c r="E19" t="n">
-        <v>22.09252109618843</v>
+        <v>76.27673242182033</v>
       </c>
       <c r="F19" t="n">
-        <v>22.09252109618843</v>
+        <v>76.27673242182033</v>
       </c>
       <c r="G19" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
-        <v>22.09252109618843</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>58.70189726492713</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>107.6904745160686</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>160.9488293168851</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>194.1252445754622</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>198.9927170031358</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>198.9927170031358</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>198.9927170031358</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S19" t="n">
-        <v>198.9927170031358</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T19" t="n">
-        <v>198.9927170031358</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U19" t="n">
-        <v>22.09252109618843</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V19" t="n">
-        <v>22.09252109618843</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W19" t="n">
-        <v>22.09252109618843</v>
+        <v>76.27673242182033</v>
       </c>
       <c r="X19" t="n">
-        <v>22.09252109618843</v>
+        <v>76.27673242182033</v>
       </c>
       <c r="Y19" t="n">
-        <v>22.09252109618843</v>
+        <v>76.27673242182033</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>549.649320534154</v>
+        <v>1606.02060534945</v>
       </c>
       <c r="C20" t="n">
-        <v>549.649320534154</v>
+        <v>1237.058088409038</v>
       </c>
       <c r="D20" t="n">
-        <v>549.649320534154</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="E20" t="n">
-        <v>534.603677789272</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="F20" t="n">
         <v>534.603677789272</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V20" t="n">
-        <v>1662.48357412947</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W20" t="n">
-        <v>1309.714918859356</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X20" t="n">
-        <v>936.2491605982757</v>
+        <v>1992.620445413572</v>
       </c>
       <c r="Y20" t="n">
-        <v>936.2491605982757</v>
+        <v>1992.620445413572</v>
       </c>
     </row>
     <row r="21">
@@ -5840,22 +5840,22 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2627.754532504893</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S21" t="n">
         <v>2488.762748073964</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C22" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D22" t="n">
-        <v>288.5951747571379</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E22" t="n">
-        <v>140.6820811747448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
         <v>53.94298182036445</v>
@@ -5943,19 +5943,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V22" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W22" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X22" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y22" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>833.8914035503838</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C23" t="n">
-        <v>464.928886609972</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D23" t="n">
-        <v>464.928886609972</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E23" t="n">
-        <v>464.928886609972</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F23" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
         <v>53.94298182036445</v>
@@ -5989,13 +5989,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V23" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W23" t="n">
-        <v>1309.714918859356</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X23" t="n">
-        <v>1220.491243614505</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y23" t="n">
-        <v>1220.491243614505</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="24">
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
         <v>665.1105362747051</v>
@@ -6071,22 +6071,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N24" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2291.509718890064</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2627.754532504893</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
@@ -6104,7 +6104,7 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2022.963088632153</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>2697.149091018222</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U25" t="n">
-        <v>2697.149091018222</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="V25" t="n">
-        <v>2697.149091018222</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="W25" t="n">
-        <v>2407.731920981262</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="X25" t="n">
-        <v>2179.742370083244</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y25" t="n">
-        <v>2022.963088632153</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1349.56916835588</v>
+        <v>1331.377835177124</v>
       </c>
       <c r="C26" t="n">
-        <v>1349.56916835588</v>
+        <v>1331.377835177124</v>
       </c>
       <c r="D26" t="n">
-        <v>1349.56916835588</v>
+        <v>1331.377835177124</v>
       </c>
       <c r="E26" t="n">
-        <v>1349.56916835588</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="F26" t="n">
-        <v>938.5832635662728</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G26" t="n">
-        <v>520.6194554644596</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H26" t="n">
-        <v>193.4247355004625</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
         <v>2642.120401548716</v>
@@ -6259,19 +6259,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U26" t="n">
-        <v>2465.942913862886</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V26" t="n">
-        <v>2465.942913862886</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W26" t="n">
-        <v>2113.174258592772</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X26" t="n">
-        <v>1739.708500331692</v>
+        <v>1485.946714969783</v>
       </c>
       <c r="Y26" t="n">
-        <v>1349.56916835588</v>
+        <v>1485.946714969783</v>
       </c>
     </row>
     <row r="27">
@@ -6281,40 +6281,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
         <v>1748.695370517453</v>
@@ -6326,22 +6326,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.69838933464715</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036446</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036446</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036446</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6393,43 +6393,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W28" t="n">
-        <v>728.1289842064343</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X28" t="n">
-        <v>500.139433308417</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y28" t="n">
-        <v>279.3468541648868</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1970.914677487028</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C29" t="n">
-        <v>1749.341643278937</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D29" t="n">
-        <v>1749.341643278937</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E29" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F29" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G29" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
         <v>881.2824271224079</v>
@@ -6481,34 +6481,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V29" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W29" t="n">
-        <v>2344.380435748108</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X29" t="n">
-        <v>1970.914677487028</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="Y29" t="n">
-        <v>1970.914677487028</v>
+        <v>2013.546485980902</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C30" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J30" t="n">
         <v>129.2001442204943</v>
@@ -6563,22 +6563,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6587,7 +6587,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2032.826587084078</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="C31" t="n">
-        <v>2022.963088632153</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D31" t="n">
-        <v>2022.963088632153</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E31" t="n">
-        <v>2022.963088632153</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F31" t="n">
-        <v>2022.963088632153</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K31" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662038</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T31" t="n">
-        <v>2697.149091018222</v>
+        <v>659.0063399253745</v>
       </c>
       <c r="U31" t="n">
-        <v>2697.149091018222</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="V31" t="n">
-        <v>2442.464602812336</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="W31" t="n">
-        <v>2442.464602812336</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="X31" t="n">
-        <v>2214.475051914318</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="Y31" t="n">
-        <v>2214.475051914318</v>
+        <v>369.8327295799424</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>381.1377017843616</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="C32" t="n">
-        <v>381.1377017843616</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="D32" t="n">
-        <v>381.1377017843616</v>
+        <v>1127.626707938434</v>
       </c>
       <c r="E32" t="n">
-        <v>381.1377017843616</v>
+        <v>741.8384553401902</v>
       </c>
       <c r="F32" t="n">
-        <v>381.1377017843616</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G32" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036445</v>
@@ -6706,13 +6706,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6727,25 +6727,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U32" t="n">
-        <v>1993.54646147304</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V32" t="n">
-        <v>1662.48357412947</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W32" t="n">
-        <v>1309.714918859356</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X32" t="n">
-        <v>936.2491605982757</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y32" t="n">
-        <v>546.109828622464</v>
+        <v>1485.892406545185</v>
       </c>
     </row>
     <row r="33">
@@ -6761,16 +6761,16 @@
         <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F33" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
         <v>115.9856282673424</v>
@@ -6788,16 +6788,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2482.860667836385</v>
+        <v>506.1616404812942</v>
       </c>
       <c r="C34" t="n">
-        <v>2482.860667836385</v>
+        <v>506.1616404812942</v>
       </c>
       <c r="D34" t="n">
-        <v>2363.422654145322</v>
+        <v>506.1616404812942</v>
       </c>
       <c r="E34" t="n">
-        <v>2215.509560562929</v>
+        <v>506.1616404812942</v>
       </c>
       <c r="F34" t="n">
-        <v>2068.619613065019</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G34" t="n">
-        <v>2068.619613065019</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H34" t="n">
-        <v>2068.619613065019</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I34" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>2482.860667836385</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>2482.860667836385</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>2482.860667836385</v>
+        <v>506.1616404812942</v>
       </c>
       <c r="V34" t="n">
-        <v>2482.860667836385</v>
+        <v>506.1616404812942</v>
       </c>
       <c r="W34" t="n">
-        <v>2482.860667836385</v>
+        <v>506.1616404812942</v>
       </c>
       <c r="X34" t="n">
-        <v>2482.860667836385</v>
+        <v>506.1616404812942</v>
       </c>
       <c r="Y34" t="n">
-        <v>2482.860667836385</v>
+        <v>506.1616404812942</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1210.087414675782</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C35" t="n">
-        <v>1210.087414675782</v>
+        <v>567.286643657864</v>
       </c>
       <c r="D35" t="n">
-        <v>1210.087414675782</v>
+        <v>209.0209450511135</v>
       </c>
       <c r="E35" t="n">
-        <v>1210.087414675782</v>
+        <v>209.0209450511135</v>
       </c>
       <c r="F35" t="n">
-        <v>799.1015098861748</v>
+        <v>209.0209450511135</v>
       </c>
       <c r="G35" t="n">
-        <v>381.1377017843616</v>
+        <v>209.0209450511135</v>
       </c>
       <c r="H35" t="n">
         <v>53.94298182036445</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W35" t="n">
-        <v>2360.292344976796</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X35" t="n">
-        <v>1986.826586715716</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y35" t="n">
-        <v>1596.687254739904</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="36">
@@ -7034,25 +7034,25 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2457.321732528233</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="C37" t="n">
-        <v>2457.321732528233</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="D37" t="n">
-        <v>2307.205093115898</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="E37" t="n">
-        <v>2159.291999533505</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F37" t="n">
-        <v>2159.291999533505</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G37" t="n">
-        <v>2159.291999533505</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H37" t="n">
-        <v>2159.291999533505</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>2549.002432452407</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S37" t="n">
-        <v>2549.002432452407</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T37" t="n">
-        <v>2549.002432452407</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U37" t="n">
-        <v>2549.002432452407</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V37" t="n">
-        <v>2549.002432452407</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W37" t="n">
-        <v>2549.002432452407</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X37" t="n">
-        <v>2549.002432452407</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="Y37" t="n">
-        <v>2457.321732528233</v>
+        <v>579.9823256406182</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1577.945354755379</v>
+        <v>1579.049931616194</v>
       </c>
       <c r="C38" t="n">
-        <v>1208.982837814967</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D38" t="n">
-        <v>850.7171392082163</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E38" t="n">
-        <v>464.928886609972</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F38" t="n">
-        <v>53.94298182036446</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V38" t="n">
-        <v>2697.149091018223</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W38" t="n">
-        <v>2354.684526795312</v>
+        <v>1579.049931616194</v>
       </c>
       <c r="X38" t="n">
-        <v>2354.684526795312</v>
+        <v>1579.049931616194</v>
       </c>
       <c r="Y38" t="n">
-        <v>1964.5451948195</v>
+        <v>1579.049931616194</v>
       </c>
     </row>
     <row r="39">
@@ -7229,67 +7229,67 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692497</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7298,7 +7298,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y39" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2153.290992466904</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C40" t="n">
-        <v>2153.290992466904</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D40" t="n">
-        <v>2153.290992466904</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E40" t="n">
-        <v>2153.290992466904</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F40" t="n">
-        <v>2153.290992466904</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
-        <v>2153.290992466904</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>2697.149091018223</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U40" t="n">
-        <v>2407.975480672791</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V40" t="n">
-        <v>2153.290992466904</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="W40" t="n">
-        <v>2153.290992466904</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X40" t="n">
-        <v>2153.290992466904</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y40" t="n">
-        <v>2153.290992466904</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>882.8926947117851</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C41" t="n">
-        <v>882.8926947117851</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D41" t="n">
-        <v>882.8926947117851</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E41" t="n">
-        <v>882.8926947117851</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F41" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
         <v>169.7108380533141</v>
@@ -7438,25 +7438,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2520.971603332392</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T41" t="n">
-        <v>2302.336936304455</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U41" t="n">
-        <v>2048.575150942546</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V41" t="n">
-        <v>1717.512263598976</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W41" t="n">
-        <v>1364.743608328861</v>
+        <v>2185.752013551832</v>
       </c>
       <c r="X41" t="n">
-        <v>991.2778500677816</v>
+        <v>1812.286255290752</v>
       </c>
       <c r="Y41" t="n">
-        <v>882.8926947117851</v>
+        <v>1422.14692331494</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170821</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359551</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692481</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
@@ -7517,25 +7517,25 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="43">
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>359.6044479702274</v>
+        <v>530.7441767280769</v>
       </c>
       <c r="C43" t="n">
-        <v>359.6044479702274</v>
+        <v>361.80799380017</v>
       </c>
       <c r="D43" t="n">
-        <v>359.6044479702274</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E43" t="n">
         <v>211.6913543878343</v>
@@ -7563,13 +7563,13 @@
         <v>211.6913543878343</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7590,31 +7590,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>550.5654064942401</v>
+        <v>712.3926415583167</v>
       </c>
       <c r="U43" t="n">
-        <v>550.5654064942401</v>
+        <v>712.3926415583167</v>
       </c>
       <c r="V43" t="n">
-        <v>550.5654064942401</v>
+        <v>712.3926415583167</v>
       </c>
       <c r="W43" t="n">
-        <v>550.5654064942401</v>
+        <v>712.3926415583167</v>
       </c>
       <c r="X43" t="n">
-        <v>359.6044479702274</v>
+        <v>712.3926415583167</v>
       </c>
       <c r="Y43" t="n">
-        <v>359.6044479702274</v>
+        <v>712.3926415583167</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1567.641263708175</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="C44" t="n">
-        <v>1198.678746767763</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D44" t="n">
-        <v>840.413048161013</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E44" t="n">
-        <v>454.6247955627687</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F44" t="n">
-        <v>454.6247955627687</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
         <v>53.94298182036446</v>
@@ -7648,13 +7648,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7687,13 +7687,13 @@
         <v>2697.149091018223</v>
       </c>
       <c r="W44" t="n">
-        <v>2344.380435748109</v>
+        <v>2402.06014195321</v>
       </c>
       <c r="X44" t="n">
-        <v>2344.380435748109</v>
+        <v>2028.59438369213</v>
       </c>
       <c r="Y44" t="n">
-        <v>1954.241103772297</v>
+        <v>1638.455051716319</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890065</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C46" t="n">
-        <v>656.6110348804735</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D46" t="n">
-        <v>506.4943954681378</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E46" t="n">
-        <v>358.5813018857447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F46" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G46" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H46" t="n">
         <v>53.94298182036446</v>
@@ -7836,22 +7836,22 @@
         <v>728.1289842064343</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064343</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="U46" t="n">
-        <v>728.1289842064343</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="V46" t="n">
-        <v>728.1289842064343</v>
+        <v>246.1363086691492</v>
       </c>
       <c r="W46" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X46" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y46" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,16 +8069,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,19 +8297,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N6" t="n">
-        <v>231.1529892133072</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8543,16 +8543,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O9" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,16 +8771,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>129.8481964236087</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>127.8064787429919</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>399.6030297167408</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>394.5837460350002</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9014,10 +9014,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>349.8309392169676</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>133.663080786811</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,16 +9245,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>125.6774978810002</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>137.5742284867207</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>387.9064735273547</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747121</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10436,7 +10436,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10682,10 +10682,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951786</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>327.4218609627881</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22600,16 +22600,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22628,13 +22628,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>27.26179070270013</v>
+        <v>110.6309991249582</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -22688,7 +22688,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22728,10 +22728,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>71.32518834398849</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22789,13 +22789,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
         <v>415.302737515135</v>
@@ -22828,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -22837,19 +22837,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>136.9555830739709</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>145.2236497783945</v>
@@ -22865,28 +22865,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22919,19 +22919,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22965,10 +22965,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,10 +22983,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>71.32518834398849</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,22 +23020,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>170.4484560200386</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23065,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23074,7 +23074,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23102,28 +23102,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23153,19 +23153,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>181.0464140131996</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23187,7 +23187,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>99.40903831289552</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -23199,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,10 +23220,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -23257,31 +23257,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>150.8702581588524</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>91.44100766901607</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>183.2128488163225</v>
       </c>
       <c r="G11" t="n">
-        <v>415.2102214038314</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>338.5273214908784</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>206.9091621893709</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>4.097100052852073</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>144.0576027644701</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>206.9118586999128</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>222.6908602868995</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3382516189322</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>64.51022451846802</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>85.99893476574613</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23336,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>137.9871093964566</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>97.08446202703753</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23427,22 +23427,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9494798159088</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>161.8582038473137</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>154.2024705022107</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J13" t="n">
-        <v>90.42516245839141</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>17.44799951871611</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23460,25 +23460,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>82.68702246598916</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>15.59235192972113</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>223.2933741908973</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>227.7682732010226</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3167657450791</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>90.96025646459253</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23503,22 +23503,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>260.6756606197545</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>151.9681874521648</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>338.5273214908784</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>206.9091621893709</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
-        <v>4.097100052852153</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3382516189322</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>143.0649288134562</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23585,16 +23585,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>48.12998243438797</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>97.08446202703756</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23655,31 +23655,31 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>80.36219811415343</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.9494798159088</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>161.8582038473137</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>154.2024705022108</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J16" t="n">
-        <v>90.42516245839144</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K16" t="n">
-        <v>17.44799951871616</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23697,25 +23697,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R16" t="n">
-        <v>98.2793743957106</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>223.2933741908973</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>227.7682732010226</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3167657450791</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23740,16 +23740,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>343.739834920873</v>
+        <v>144.800557357096</v>
       </c>
       <c r="F17" t="n">
-        <v>130.719532039356</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>139.005434824964</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>61.87643319194541</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23779,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23810,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>86.80307722268741</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>24.10415388719775</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23904,19 +23904,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.9278262653587</v>
+        <v>145.1993891636096</v>
       </c>
       <c r="H19" t="n">
-        <v>161.6656840978772</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>153.551289182031</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>88.89425643449839</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23934,25 +23934,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>80.87383288310646</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>174.4537986637794</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>222.9160118599466</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>227.6757534850358</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>111.1843906944439</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23971,16 +23971,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>66.1292208488257</v>
       </c>
       <c r="E20" t="n">
-        <v>367.0351837548286</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>413.784170020795</v>
@@ -24016,22 +24016,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>59.54933966209472</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>167.3098022590509</v>
@@ -24183,10 +24183,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24211,16 +24211,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>74.7442514401136</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>281.3996621860675</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24417,22 +24417,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>11.11965843648079</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>63.37316471551443</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>229.7106506687478</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24451,19 +24451,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>13.84438010156421</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,7 +24499,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>123.928967659488</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>78.24366890293328</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
@@ -24663,13 +24663,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>145.9155879049972</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -24736,7 +24736,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>364.4148984696199</v>
       </c>
     </row>
     <row r="30">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>157.4819576312215</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,10 +24849,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
@@ -24891,19 +24891,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>156.6036876198351</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>219.4114360937593</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>291.5750132227402</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24982,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25080,25 +25080,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>30.37183946406032</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>66.53420395408909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>170.3955891659156</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>15.75279013640079</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25317,13 +25317,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>54.65715509799982</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>127.8207604271635</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>10.20105013673145</v>
+        <v>15.41749512098119</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25560,13 +25560,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>27.14626404539217</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
         <v>134.9656217923382</v>
@@ -25602,16 +25602,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>241.6726527792255</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25636,7 +25636,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,22 +25681,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>268.5977423429472</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>278.936634853617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25830,16 +25830,16 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>209.4561262364479</v>
       </c>
       <c r="U43" t="n">
         <v>286.2818742419777</v>
@@ -25851,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>36.65830645026463</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25870,16 +25870,16 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>17.10917441581483</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25927,10 +25927,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>57.10290914305068</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26025,22 +26025,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>96.44405126592666</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
         <v>134.9656217923382</v>
@@ -26076,16 +26076,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>96.25160475629411</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>456941.8494611644</v>
+        <v>456941.8494611643</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>476685.414108744</v>
+        <v>795169.6775433336</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>476685.4141087438</v>
+        <v>795169.6775433335</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>487250.0410405405</v>
+        <v>795169.6775433336</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>795169.6775433337</v>
+        <v>795169.6775433335</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>795169.6775433337</v>
+        <v>795169.6775433336</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>795169.6775433337</v>
+        <v>795169.6775433336</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>795169.6775433337</v>
+        <v>795169.6775433336</v>
       </c>
     </row>
   </sheetData>
@@ -26322,13 +26322,13 @@
         <v>124620.5043984993</v>
       </c>
       <c r="E2" t="n">
-        <v>130005.1129387483</v>
+        <v>216864.4575118182</v>
       </c>
       <c r="F2" t="n">
-        <v>130005.1129387482</v>
+        <v>216864.4575118182</v>
       </c>
       <c r="G2" t="n">
-        <v>132886.3748292383</v>
+        <v>216864.4575118182</v>
       </c>
       <c r="H2" t="n">
         <v>216864.4575118182</v>
@@ -26337,7 +26337,7 @@
         <v>216864.4575118182</v>
       </c>
       <c r="J2" t="n">
-        <v>216864.4575118182</v>
+        <v>216864.4575118183</v>
       </c>
       <c r="K2" t="n">
         <v>216864.4575118182</v>
@@ -26346,13 +26346,13 @@
         <v>216864.4575118182</v>
       </c>
       <c r="M2" t="n">
-        <v>216864.4575118181</v>
+        <v>216864.4575118182</v>
       </c>
       <c r="N2" t="n">
         <v>216864.4575118182</v>
       </c>
       <c r="O2" t="n">
-        <v>216864.4575118182</v>
+        <v>216864.4575118181</v>
       </c>
       <c r="P2" t="n">
         <v>216864.4575118182</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25125.73635942195</v>
+        <v>432846.174042996</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>12875.6342501943</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>369844.2053843286</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910626</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,16 +26398,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>5539.242983423047</v>
+        <v>107973.3606740581</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3107.882466482962</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>94107.76004020481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,13 +26426,13 @@
         <v>179.5324977039669</v>
       </c>
       <c r="E4" t="n">
-        <v>196.6176664714449</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="F4" t="n">
-        <v>196.6176664714447</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="G4" t="n">
-        <v>206.5374179011836</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="H4" t="n">
         <v>513.1084990597035</v>
@@ -26478,13 +26478,13 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>16506.80740683336</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
-        <v>16506.80740683334</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
-        <v>17553.77951678014</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
         <v>49231.47806340946</v>
@@ -26493,10 +26493,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="K5" t="n">
         <v>49231.47806340947</v>
-      </c>
-      <c r="K5" t="n">
-        <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
         <v>49231.47806340946</v>
@@ -26505,7 +26505,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4609.728394514081</v>
+        <v>-16827.73901455454</v>
       </c>
       <c r="C6" t="n">
-        <v>76159.70313703365</v>
+        <v>63941.69251699319</v>
       </c>
       <c r="D6" t="n">
-        <v>76159.70313703365</v>
+        <v>63941.69251699319</v>
       </c>
       <c r="E6" t="n">
-        <v>88175.95150602155</v>
+        <v>-271794.7168394661</v>
       </c>
       <c r="F6" t="n">
-        <v>113301.6878654436</v>
+        <v>161051.4572035298</v>
       </c>
       <c r="G6" t="n">
-        <v>102250.4236443627</v>
+        <v>161051.4572035297</v>
       </c>
       <c r="H6" t="n">
-        <v>-202724.3344349796</v>
+        <v>161051.4572035298</v>
       </c>
       <c r="I6" t="n">
-        <v>167119.870949349</v>
+        <v>161051.4572035297</v>
       </c>
       <c r="J6" t="n">
-        <v>104059.9283502428</v>
+        <v>97991.51460442366</v>
       </c>
       <c r="K6" t="n">
-        <v>167119.870949349</v>
+        <v>161051.4572035298</v>
       </c>
       <c r="L6" t="n">
-        <v>167119.870949349</v>
+        <v>161051.4572035298</v>
       </c>
       <c r="M6" t="n">
-        <v>161580.6279659258</v>
+        <v>53078.09652947171</v>
       </c>
       <c r="N6" t="n">
-        <v>167119.870949349</v>
+        <v>161051.4572035298</v>
       </c>
       <c r="O6" t="n">
-        <v>164011.9884828661</v>
+        <v>161051.4572035297</v>
       </c>
       <c r="P6" t="n">
-        <v>73012.11090914422</v>
+        <v>161051.4572035297</v>
       </c>
     </row>
   </sheetData>
@@ -26746,13 +26746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.01338268678962</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>23.01338268678938</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
-        <v>35.02126071912529</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
         <v>377.7436642170866</v>
@@ -26798,13 +26798,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>263.2420339516669</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>263.2420339516666</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>276.1565137023554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
         <v>674.2872727545556</v>
@@ -26813,10 +26813,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="K4" t="n">
         <v>674.2872727545557</v>
-      </c>
-      <c r="K4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545556</v>
@@ -26825,10 +26825,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
         <v>674.2872727545557</v>
@@ -26968,16 +26968,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.01338268678962</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>12.00787803233591</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>342.7224034979614</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>22.22774507400783</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>12.91447975068883</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>398.1307590522002</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776592</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,16 +27044,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>22.22774507400783</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>12.9144797506886</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>398.1307590522004</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27266,16 +27266,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>22.22774507400783</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>12.91447975068883</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>398.1307590522002</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.09251611130367678</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H11" t="n">
-        <v>0.94748062488878</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I11" t="n">
-        <v>3.566727381035002</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J11" t="n">
-        <v>7.852189301760444</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>11.76839629324508</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>14.59973623455499</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>16.24501962895175</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
-        <v>16.50788103019332</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>15.58792394841738</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P11" t="n">
-        <v>13.30393245060786</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544932</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>5.811515176679592</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S11" t="n">
-        <v>2.108210886332537</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>0.4049892772318453</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U11" t="n">
-        <v>0.00740128890429414</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04950048351498144</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4780704592104787</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I12" t="n">
-        <v>1.704292963125458</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K12" t="n">
-        <v>7.993242550750314</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L12" t="n">
-        <v>10.74790103688226</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>9.452421277523079</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.318693299210613</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>3.073372125605603</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S12" t="n">
-        <v>0.9194497705523959</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T12" t="n">
-        <v>0.1995216857467891</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.00325661075756457</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04149954254994848</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3689686601259058</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I13" t="n">
-        <v>1.248004425047542</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J13" t="n">
-        <v>2.934017658281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>4.821492307166741</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L13" t="n">
-        <v>6.169850171471433</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M13" t="n">
-        <v>6.505241928988742</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N13" t="n">
-        <v>6.35056181584803</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>5.865771705150903</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P13" t="n">
-        <v>5.019181037131949</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.475020785705232</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R13" t="n">
-        <v>1.865970340473138</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
-        <v>0.723223846075011</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>0.1773162272588708</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U13" t="n">
-        <v>0.002263611411815374</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.09251611130367583</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9474806248887704</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I14" t="n">
-        <v>3.566727381034966</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J14" t="n">
-        <v>7.852189301760364</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>11.76839629324496</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>14.59973623455484</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>16.24501962895158</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
-        <v>16.50788103019315</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>15.58792394841722</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P14" t="n">
-        <v>13.30393245060773</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544831</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>5.811515176679532</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S14" t="n">
-        <v>2.108210886332515</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>0.4049892772318412</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U14" t="n">
-        <v>0.007401288904294065</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04950048351498094</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4780704592104738</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I15" t="n">
-        <v>1.70429296312544</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>4.676710155246511</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K15" t="n">
-        <v>7.993242550750233</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L15" t="n">
-        <v>10.74790103688215</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O15" t="n">
-        <v>11.77742425104022</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>9.452421277522983</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.318693299210549</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>3.073372125605572</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S15" t="n">
-        <v>0.9194497705523865</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T15" t="n">
-        <v>0.1995216857467871</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.003256610757564536</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04149954254994806</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3689686601259021</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I16" t="n">
-        <v>1.248004425047529</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J16" t="n">
-        <v>2.934017658281328</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>4.821492307166691</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L16" t="n">
-        <v>6.16985017147137</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M16" t="n">
-        <v>6.505241928988675</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N16" t="n">
-        <v>6.350561815847965</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>5.865771705150842</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P16" t="n">
-        <v>5.019181037131898</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.475020785705196</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R16" t="n">
-        <v>1.865970340473119</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
-        <v>0.7232238460750037</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>0.1773162272588689</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U16" t="n">
-        <v>0.002263611411815351</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.140788987815579</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H17" t="n">
-        <v>1.441855221466299</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>5.427767452760113</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461251</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>17.90888720884597</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L17" t="n">
-        <v>22.217558194707</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M17" t="n">
-        <v>24.7213143567723</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N17" t="n">
-        <v>25.12133106840331</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>23.72136057081215</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
-        <v>20.24563243411504</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
-        <v>15.20362680796961</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>8.84383625587037</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
-        <v>3.208229059847509</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>0.6163037941626972</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0753287494713261</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>0.727517133052018</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
-        <v>2.593555628727676</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>7.116914878779982</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
-        <v>12.16394109335883</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L18" t="n">
-        <v>16.35591992358772</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M18" t="n">
-        <v>19.08658709192328</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N18" t="n">
-        <v>19.59175225833406</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O18" t="n">
-        <v>17.92262575689047</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>14.38448725650261</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
-        <v>9.615648792164365</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>4.676990252263565</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
-        <v>1.399198482504675</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>0.3036277226497748</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.004955838781008299</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06315309310006199</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5614884095623698</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
-        <v>1.89918574522732</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>4.464923682174383</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>7.337241180170838</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
-        <v>9.389142586894673</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M19" t="n">
-        <v>9.899534402948808</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N19" t="n">
-        <v>9.66414560139404</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>8.926402650179675</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
-        <v>7.638079550938405</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.28821036858792</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
-        <v>2.83959271339006</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S19" t="n">
-        <v>1.100586177025626</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>0.2698359432457194</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
-        <v>0.003444714169094295</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32560,7 +32560,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M21" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993462</v>
       </c>
       <c r="N21" t="n">
         <v>211.31907117367</v>
@@ -32569,10 +32569,10 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>139.4326257134866</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
         <v>50.44659727034982</v>
@@ -32791,7 +32791,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L24" t="n">
         <v>176.4169820478007</v>
@@ -32803,13 +32803,13 @@
         <v>211.31907117367</v>
       </c>
       <c r="O24" t="n">
-        <v>177.5954266578334</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
         <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
         <v>50.44659727034982</v>
@@ -33025,7 +33025,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33037,7 +33037,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N27" t="n">
-        <v>167.9005868329995</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O27" t="n">
         <v>193.3156655923047</v>
@@ -33283,7 +33283,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q30" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>50.44659727034982</v>
@@ -33520,7 +33520,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q33" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>50.44659727034982</v>
@@ -33757,7 +33757,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>50.44659727034982</v>
@@ -33915,7 +33915,7 @@
         <v>218.3719038954667</v>
       </c>
       <c r="Q38" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R38" t="n">
         <v>95.39071536633797</v>
@@ -33994,7 +33994,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q39" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>50.44659727034982</v>
@@ -34231,7 +34231,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q42" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>50.44659727034982</v>
@@ -34447,10 +34447,10 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K45" t="n">
-        <v>87.78329382423996</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L45" t="n">
         <v>176.4169820478007</v>
@@ -34462,13 +34462,13 @@
         <v>211.31907117367</v>
       </c>
       <c r="O45" t="n">
-        <v>193.3156655923047</v>
+        <v>177.5954266578339</v>
       </c>
       <c r="P45" t="n">
         <v>155.1528646479577</v>
       </c>
       <c r="Q45" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>50.44659727034982</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
@@ -34789,16 +34789,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,19 +35017,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N6" t="n">
-        <v>99.8112771299739</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35263,16 +35263,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O9" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>115.8239578194293</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>196.4945358150182</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>235.4123198945115</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>224.4417418455866</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>166.289893789476</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P11" t="n">
-        <v>103.869644866821</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>257.4689957947224</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>263.2420339516669</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P12" t="n">
-        <v>193.94078250313</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>76.41420694903819</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L13" t="n">
-        <v>33.75987543178757</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M13" t="n">
-        <v>46.08911889082933</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N13" t="n">
-        <v>50.48273419507662</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O13" t="n">
-        <v>30.45089961919058</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>2.297740302025437</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>115.8239578194292</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>196.494535815018</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>235.4123198945113</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>224.4417418455864</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>166.2898937894759</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P14" t="n">
-        <v>103.8696448668208</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K15" t="n">
-        <v>134.6170405889698</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
-        <v>243.0338665604671</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>207.6969052949493</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>263.0434990833253</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P15" t="n">
-        <v>193.9407825031299</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L16" t="n">
-        <v>33.75987543178751</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M16" t="n">
-        <v>46.08911889082926</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N16" t="n">
-        <v>50.48273419507656</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O16" t="n">
-        <v>30.45089961919052</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>2.297740302025386</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
-        <v>121.9644487350302</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L17" t="n">
-        <v>204.1123577751702</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>243.8886146223321</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N17" t="n">
-        <v>233.0551918837966</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>174.4233304118708</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
-        <v>110.8113448503281</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
-        <v>5.212927593424808</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>6.370323552522125</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
-        <v>248.6418854471727</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M18" t="n">
-        <v>14.52678165662563</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>276.1565137023554</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>269.1887005891755</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>198.8728484821095</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>79.71116244199195</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
-        <v>36.97916784721081</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M19" t="n">
-        <v>49.4834113647894</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N19" t="n">
-        <v>53.79631798062263</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O19" t="n">
-        <v>33.51153056421935</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>4.916638815831893</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36208,7 +36208,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M21" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N21" t="n">
         <v>559.3197334338902</v>
@@ -36217,10 +36217,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>323.9209869390935</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36451,13 +36451,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>428.8615014901185</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36685,7 +36685,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>515.9012490932197</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37156,7 +37156,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M33" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
         <v>559.3197334338902</v>
@@ -37168,7 +37168,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37402,10 +37402,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37563,7 +37563,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37642,7 +37642,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
-        <v>365.2844632307146</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
         <v>529.4413268262938</v>
@@ -37879,7 +37879,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K45" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38110,13 +38110,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>428.8615014901189</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>653006.5266837373</v>
+        <v>718344.3217832244</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>196744.2971796655</v>
+        <v>314457.9568227074</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10947499.68099519</v>
+        <v>12105624.27530281</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8218487.197793873</v>
+        <v>7663114.164145632</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -740,28 +740,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>62.07749986335751</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="T5" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -1274,7 +1274,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>70.64856914772001</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,19 +1381,19 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>223.6631969253889</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>4.097100052852073</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>227.766483451776</v>
       </c>
     </row>
     <row r="12">
@@ -1448,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250819</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229332</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>156.5912426325226</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8879277888686</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1517,7 +1517,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>105.3830043755893</v>
       </c>
     </row>
     <row r="13">
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1587,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>161.1773868592355</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>159.8350691069752</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>121.2547094525073</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>5.075623164876451</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>4.097100052852072</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,28 +1685,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250819</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229332</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>156.5912426325226</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8879277888686</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1754,7 +1754,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>105.3830043755893</v>
       </c>
     </row>
     <row r="16">
@@ -1767,16 +1767,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>68.25327490405893</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>159.8350691069752</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,25 +1846,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>335.2144759665194</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>237.1298127151658</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1973,7 +1973,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
-        <v>156.5912426325226</v>
+        <v>156.591242632523</v>
       </c>
       <c r="T18" t="n">
         <v>196.8897623984489</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>22.11041309544132</v>
+        <v>47.1416784925591</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>303.2310903432204</v>
       </c>
       <c r="D20" t="n">
-        <v>288.5538207718573</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S21" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T21" t="n">
         <v>196.8897623984489</v>
@@ -2244,16 +2244,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>121.2699779972376</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>94.63926978364034</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>307.1861186321482</v>
+        <v>260.6094476077821</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2365,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2453,10 +2453,10 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888683</v>
       </c>
       <c r="V24" t="n">
-        <v>232.800587149425</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -2478,22 +2478,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>70.80276983270126</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>275.1622158054969</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>153.0231909947327</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,25 +2602,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>315.74362701362</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2721,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>68.19029374363589</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>208.997829469025</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2797,10 +2797,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>113.210372517577</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>21.82304018643375</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T30" t="n">
         <v>196.8897623984489</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>155.4526127311944</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>68.43141783824922</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>115.3010325189712</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>39.30447282260486</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3158,7 +3158,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
-        <v>156.5912426325231</v>
+        <v>156.591242632523</v>
       </c>
       <c r="T33" t="n">
         <v>196.8897623984489</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>47.14167849255917</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>219.7476702878886</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>153.5271835984416</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>275.4805812731082</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>93.95831792021254</v>
+        <v>84.45262105857549</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
         <v>134.9656217923382</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -3559,19 +3559,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>333.8234735964318</v>
+        <v>2.823190303973417</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3672,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>94.63926978364054</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>10.46499054460254</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3745,13 +3745,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>413.784170020795</v>
@@ -3787,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>80.64322637446583</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>343.9486222704222</v>
       </c>
     </row>
     <row r="42">
@@ -3833,7 +3833,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H42" t="n">
         <v>104.3883541553076</v>
@@ -3869,7 +3869,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
-        <v>156.5912426325231</v>
+        <v>156.591242632523</v>
       </c>
       <c r="T42" t="n">
         <v>196.8897623984489</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>15.57897922163638</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>217.7892635222204</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -4030,16 +4030,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>292.1380595743623</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>94.63926978364054</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>190.2713935802969</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>506.1786963984129</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="C2" t="n">
-        <v>262.7299197543128</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="D2" t="n">
-        <v>262.7299197543128</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="G2" t="n">
         <v>19.28114311021272</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U2" t="n">
-        <v>749.627473042513</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="V2" t="n">
-        <v>749.627473042513</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="W2" t="n">
-        <v>749.627473042513</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="X2" t="n">
-        <v>749.627473042513</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="Y2" t="n">
-        <v>749.627473042513</v>
+        <v>104.5536560184564</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.6083788665362</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C3" t="n">
-        <v>657.9038335500135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4442,19 +4442,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W3" t="n">
-        <v>720.6083788665362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X3" t="n">
-        <v>720.6083788665362</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y3" t="n">
-        <v>720.6083788665362</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="4">
@@ -4509,16 +4509,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
         <v>19.28114311021272</v>
@@ -4546,13 +4546,13 @@
         <v>506.1786963984129</v>
       </c>
       <c r="C5" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D5" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="E5" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
         <v>19.28114311021272</v>
@@ -4594,7 +4594,7 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T5" t="n">
         <v>749.627473042513</v>
@@ -4612,7 +4612,7 @@
         <v>749.627473042513</v>
       </c>
       <c r="Y5" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="6">
@@ -4652,19 +4652,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C8" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D8" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E8" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F8" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4834,22 +4834,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V8" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W8" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X8" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y8" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="9">
@@ -4859,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O9" t="n">
         <v>781.4136778972854</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="T9" t="n">
-        <v>761.8705608694022</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U9" t="n">
-        <v>533.6469426057913</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V9" t="n">
-        <v>298.4948343740486</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W9" t="n">
-        <v>227.1326433157456</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
         <v>19.28114311021272</v>
@@ -5001,13 +5001,13 @@
         <v>66.78106667958005</v>
       </c>
       <c r="W10" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1547.452423968253</v>
+        <v>556.9999364092505</v>
       </c>
       <c r="C11" t="n">
-        <v>1178.489907027842</v>
+        <v>556.9999364092505</v>
       </c>
       <c r="D11" t="n">
-        <v>1178.489907027842</v>
+        <v>556.9999364092505</v>
       </c>
       <c r="E11" t="n">
-        <v>1178.489907027842</v>
+        <v>556.9999364092505</v>
       </c>
       <c r="F11" t="n">
-        <v>952.5674858910851</v>
+        <v>291.0988920136273</v>
       </c>
       <c r="G11" t="n">
-        <v>534.603677789272</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533143</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733128</v>
+        <v>135.7250809573684</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>330.2546714142364</v>
       </c>
       <c r="M11" t="n">
-        <v>1362.238747280443</v>
+        <v>563.3128681098028</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>785.5101925369336</v>
       </c>
       <c r="O11" t="n">
-        <v>2238.843319642689</v>
+        <v>950.1371873885148</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791252</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018222</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="S11" t="n">
-        <v>2642.120401548716</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="T11" t="n">
-        <v>2642.120401548716</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="U11" t="n">
-        <v>2642.120401548716</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="V11" t="n">
-        <v>2311.057514205145</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="W11" t="n">
-        <v>2311.057514205145</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="X11" t="n">
-        <v>1937.591755944065</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Y11" t="n">
-        <v>1547.452423968253</v>
+        <v>822.9009808048736</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673424</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>35.350140658046</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>275.9536685529086</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>275.9536685529086</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>536.5632821650588</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>785.316696249021</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>977.3180709271197</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018222</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="U12" t="n">
-        <v>2061.714576167582</v>
+        <v>824.7478070488723</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>589.5956988171297</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207638</v>
+        <v>335.3583420889281</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002105</v>
+        <v>127.5068418833952</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.713312237151</v>
+        <v>21.05936271613335</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>246.4894537511405</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="C13" t="n">
-        <v>246.4894537511405</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="D13" t="n">
-        <v>246.4894537511405</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="E13" t="n">
-        <v>246.4894537511405</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="F13" t="n">
-        <v>99.59950625323012</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="G13" t="n">
-        <v>99.59950625323012</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H13" t="n">
-        <v>99.59950625323012</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I13" t="n">
-        <v>99.59950625323012</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K13" t="n">
-        <v>110.2451748866326</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="L13" t="n">
-        <v>237.819032447791</v>
+        <v>54.48163939360305</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658209</v>
+        <v>100.1098670955241</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502499</v>
+        <v>150.08777394865</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594901</v>
+        <v>180.2341645716486</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064342</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="Q13" t="n">
-        <v>698.7120650600561</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="R13" t="n">
-        <v>698.7120650600561</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="S13" t="n">
-        <v>698.7120650600561</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="T13" t="n">
-        <v>698.7120650600561</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="U13" t="n">
-        <v>698.7120650600561</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="V13" t="n">
-        <v>535.9066237881011</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="W13" t="n">
-        <v>246.4894537511405</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="X13" t="n">
-        <v>246.4894537511405</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="Y13" t="n">
-        <v>246.4894537511405</v>
+        <v>21.05936271613335</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1005.372199209267</v>
+        <v>562.1268284949842</v>
       </c>
       <c r="C14" t="n">
-        <v>1005.372199209267</v>
+        <v>296.2257840993611</v>
       </c>
       <c r="D14" t="n">
-        <v>1005.372199209267</v>
+        <v>296.2257840993611</v>
       </c>
       <c r="E14" t="n">
-        <v>882.8926947117852</v>
+        <v>296.2257840993611</v>
       </c>
       <c r="F14" t="n">
-        <v>471.9067899221776</v>
+        <v>30.32473970373792</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036445</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>135.7250809573683</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224074</v>
+        <v>330.2546714142364</v>
       </c>
       <c r="M14" t="n">
-        <v>1362.238747280443</v>
+        <v>563.3128681098028</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>785.5101925369335</v>
       </c>
       <c r="O14" t="n">
-        <v>2238.843319642689</v>
+        <v>950.1371873885148</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791252</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018222</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548716</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="S14" t="n">
-        <v>2465.942913862886</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="T14" t="n">
-        <v>2465.942913862886</v>
+        <v>828.0278728906073</v>
       </c>
       <c r="U14" t="n">
-        <v>2465.942913862886</v>
+        <v>828.0278728906073</v>
       </c>
       <c r="V14" t="n">
-        <v>2134.880026519315</v>
+        <v>828.0278728906073</v>
       </c>
       <c r="W14" t="n">
-        <v>1782.111371249201</v>
+        <v>562.1268284949842</v>
       </c>
       <c r="X14" t="n">
-        <v>1782.111371249201</v>
+        <v>562.1268284949842</v>
       </c>
       <c r="Y14" t="n">
-        <v>1391.972039273389</v>
+        <v>562.1268284949842</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673424</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>154.3302328992136</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>384.2933387675627</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>543.605108110555</v>
       </c>
       <c r="N15" t="n">
-        <v>1866.936832414847</v>
+        <v>804.2147217227052</v>
       </c>
       <c r="O15" t="n">
-        <v>2307.072755435191</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="P15" t="n">
-        <v>2643.31756905002</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018222</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430047</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="U15" t="n">
-        <v>2061.714576167582</v>
+        <v>824.7478070488723</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>589.5956988171297</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207638</v>
+        <v>335.3583420889281</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002105</v>
+        <v>127.5068418833952</v>
       </c>
       <c r="Y15" t="n">
-        <v>1156.713312237151</v>
+        <v>21.05936271613335</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>438.7118141694736</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="C16" t="n">
-        <v>269.7756312415667</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="D16" t="n">
-        <v>200.8329293182748</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="E16" t="n">
-        <v>200.8329293182748</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K16" t="n">
-        <v>110.2451748866326</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>54.48163939360305</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>100.1098670955241</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>150.08777394865</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>180.2341645716486</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064342</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064342</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064342</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064342</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064342</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="W16" t="n">
-        <v>438.7118141694736</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="X16" t="n">
-        <v>438.7118141694736</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="Y16" t="n">
-        <v>438.7118141694736</v>
+        <v>21.05936271613335</v>
       </c>
     </row>
     <row r="17">
@@ -5491,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1275.883734065348</v>
+        <v>1137.701990660437</v>
       </c>
       <c r="C17" t="n">
-        <v>1275.883734065348</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="D17" t="n">
-        <v>1275.883734065348</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="E17" t="n">
-        <v>1036.358670716696</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F17" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G17" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
         <v>463.9616490733127</v>
@@ -5527,40 +5527,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S17" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T17" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U17" t="n">
-        <v>1993.54646147304</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V17" t="n">
-        <v>1662.48357412947</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W17" t="n">
-        <v>1662.48357412947</v>
+        <v>1914.44116270037</v>
       </c>
       <c r="X17" t="n">
-        <v>1662.48357412947</v>
+        <v>1914.44116270037</v>
       </c>
       <c r="Y17" t="n">
-        <v>1662.48357412947</v>
+        <v>1524.301830724559</v>
       </c>
     </row>
     <row r="18">
@@ -5591,7 +5591,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J18" t="n">
         <v>129.2001442204943</v>
@@ -5615,10 +5615,10 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
         <v>2488.762748073964</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>76.27673242182033</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C19" t="n">
-        <v>76.27673242182033</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="D19" t="n">
-        <v>76.27673242182033</v>
+        <v>396.3638799638589</v>
       </c>
       <c r="E19" t="n">
-        <v>76.27673242182033</v>
+        <v>248.4507863814658</v>
       </c>
       <c r="F19" t="n">
-        <v>76.27673242182033</v>
+        <v>101.5608388835555</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R19" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S19" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T19" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U19" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V19" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W19" t="n">
-        <v>76.27673242182033</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X19" t="n">
-        <v>76.27673242182033</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y19" t="n">
-        <v>76.27673242182033</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1606.02060534945</v>
+        <v>1547.452423968253</v>
       </c>
       <c r="C20" t="n">
-        <v>1237.058088409038</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D20" t="n">
-        <v>945.5895825788796</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E20" t="n">
-        <v>945.5895825788796</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F20" t="n">
-        <v>534.603677789272</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
         <v>53.94298182036445</v>
@@ -5755,16 +5755,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V20" t="n">
-        <v>2366.086203674652</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W20" t="n">
-        <v>2366.086203674652</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X20" t="n">
-        <v>1992.620445413572</v>
+        <v>1937.591755944065</v>
       </c>
       <c r="Y20" t="n">
-        <v>1992.620445413572</v>
+        <v>1547.452423968253</v>
       </c>
     </row>
     <row r="21">
@@ -5840,22 +5840,22 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
         <v>2488.762748073964</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036445</v>
+        <v>323.3278565882118</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036445</v>
+        <v>323.3278565882118</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036445</v>
+        <v>176.4379090903015</v>
       </c>
       <c r="G22" t="n">
         <v>53.94298182036445</v>
@@ -5916,46 +5916,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M22" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U22" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V22" t="n">
-        <v>343.360151857325</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W22" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="X22" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005476</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1920.409918978289</v>
+        <v>1504.400259589023</v>
       </c>
       <c r="C23" t="n">
-        <v>1551.447402037877</v>
+        <v>1504.400259589023</v>
       </c>
       <c r="D23" t="n">
-        <v>1193.181703431127</v>
+        <v>1146.134560982272</v>
       </c>
       <c r="E23" t="n">
         <v>882.8926947117852</v>
@@ -5989,19 +5989,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.149091018222</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X23" t="n">
-        <v>2697.149091018222</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="Y23" t="n">
-        <v>2307.009759042411</v>
+        <v>1504.400259589023</v>
       </c>
     </row>
     <row r="24">
@@ -6071,19 +6071,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
         <v>2525.076107152626</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036445</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036445</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036445</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H25" t="n">
         <v>53.94298182036445</v>
@@ -6153,46 +6153,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T25" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U25" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V25" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W25" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X25" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1331.377835177124</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C26" t="n">
-        <v>1331.377835177124</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D26" t="n">
-        <v>1331.377835177124</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E26" t="n">
-        <v>945.5895825788796</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F26" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G26" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
         <v>881.2824271224075</v>
@@ -6238,7 +6238,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6253,25 +6253,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U26" t="n">
-        <v>2212.181128500977</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V26" t="n">
-        <v>2212.181128500977</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W26" t="n">
-        <v>1859.412473230863</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X26" t="n">
-        <v>1485.946714969783</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="Y26" t="n">
-        <v>1485.946714969783</v>
+        <v>1166.959449965771</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C27" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
         <v>53.94298182036445</v>
@@ -6317,31 +6317,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>438.7118141694736</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="C28" t="n">
-        <v>438.7118141694736</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="D28" t="n">
-        <v>438.7118141694736</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="E28" t="n">
-        <v>369.8327295799424</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="F28" t="n">
-        <v>222.942782082032</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I28" t="n">
         <v>53.94298182036445</v>
@@ -6390,46 +6390,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064342</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064342</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="W28" t="n">
-        <v>438.7118141694736</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="X28" t="n">
-        <v>438.7118141694736</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="Y28" t="n">
-        <v>438.7118141694736</v>
+        <v>517.0200655508536</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1626.94664591678</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C29" t="n">
-        <v>1626.94664591678</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D29" t="n">
-        <v>1268.68094731003</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E29" t="n">
         <v>882.8926947117852</v>
@@ -6454,13 +6454,13 @@
         <v>471.9067899221776</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
         <v>169.7108380533142</v>
@@ -6469,7 +6469,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6481,34 +6481,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548716</v>
+        <v>2582.795179384306</v>
       </c>
       <c r="T29" t="n">
-        <v>2642.120401548716</v>
+        <v>2364.160512356369</v>
       </c>
       <c r="U29" t="n">
-        <v>2388.358616186807</v>
+        <v>2364.160512356369</v>
       </c>
       <c r="V29" t="n">
-        <v>2388.358616186807</v>
+        <v>2033.097625012799</v>
       </c>
       <c r="W29" t="n">
-        <v>2035.589960916693</v>
+        <v>2033.097625012799</v>
       </c>
       <c r="X29" t="n">
-        <v>2035.589960916693</v>
+        <v>1659.631866751719</v>
       </c>
       <c r="Y29" t="n">
-        <v>2013.546485980902</v>
+        <v>1269.492534775907</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
         <v>129.2001442204943</v>
@@ -6563,10 +6563,10 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
         <v>2488.762748073964</v>
@@ -6587,7 +6587,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C31" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D31" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E31" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F31" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M31" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T31" t="n">
-        <v>659.0063399253745</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U31" t="n">
-        <v>369.8327295799424</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V31" t="n">
-        <v>369.8327295799424</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W31" t="n">
-        <v>369.8327295799424</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="X31" t="n">
-        <v>369.8327295799424</v>
+        <v>210.965822962985</v>
       </c>
       <c r="Y31" t="n">
-        <v>369.8327295799424</v>
+        <v>210.965822962985</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1485.892406545185</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C32" t="n">
-        <v>1485.892406545185</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D32" t="n">
-        <v>1127.626707938434</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E32" t="n">
-        <v>741.8384553401902</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F32" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J32" t="n">
         <v>169.7108380533142</v>
@@ -6706,46 +6706,46 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T32" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U32" t="n">
-        <v>2169.72394915887</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V32" t="n">
-        <v>1838.661061815299</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W32" t="n">
-        <v>1485.892406545185</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="X32" t="n">
-        <v>1485.892406545185</v>
+        <v>2403.685817956713</v>
       </c>
       <c r="Y32" t="n">
-        <v>1485.892406545185</v>
+        <v>2013.546485980902</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J33" t="n">
         <v>129.2001442204943</v>
@@ -6800,22 +6800,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>506.1616404812942</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C34" t="n">
-        <v>506.1616404812942</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D34" t="n">
-        <v>506.1616404812942</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E34" t="n">
-        <v>506.1616404812942</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F34" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G34" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H34" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M34" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U34" t="n">
-        <v>506.1616404812942</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V34" t="n">
-        <v>506.1616404812942</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W34" t="n">
-        <v>506.1616404812942</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X34" t="n">
-        <v>506.1616404812942</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y34" t="n">
-        <v>506.1616404812942</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>936.2491605982757</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C35" t="n">
-        <v>567.286643657864</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D35" t="n">
-        <v>209.0209450511135</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E35" t="n">
-        <v>209.0209450511135</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F35" t="n">
-        <v>209.0209450511135</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
-        <v>209.0209450511135</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
         <v>881.2824271224075</v>
@@ -6955,34 +6955,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S35" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T35" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U35" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V35" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W35" t="n">
-        <v>1309.714918859356</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="X35" t="n">
-        <v>936.2491605982757</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y35" t="n">
-        <v>936.2491605982757</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="36">
@@ -7013,7 +7013,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
         <v>129.2001442204943</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C37" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D37" t="n">
-        <v>485.0749338020197</v>
+        <v>642.8233063694895</v>
       </c>
       <c r="E37" t="n">
-        <v>337.1618402196266</v>
+        <v>494.9102127870964</v>
       </c>
       <c r="F37" t="n">
-        <v>190.2718927217162</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G37" t="n">
-        <v>190.2718927217162</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H37" t="n">
         <v>190.2718927217162</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M37" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R37" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S37" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T37" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U37" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V37" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W37" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X37" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y37" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1579.049931616194</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C38" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D38" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E38" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F38" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
         <v>53.94298182036445</v>
@@ -7174,19 +7174,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7207,19 +7207,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U38" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V38" t="n">
-        <v>1916.245359491378</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W38" t="n">
-        <v>1579.049931616194</v>
+        <v>1659.631866751719</v>
       </c>
       <c r="X38" t="n">
-        <v>1579.049931616194</v>
+        <v>1659.631866751719</v>
       </c>
       <c r="Y38" t="n">
-        <v>1579.049931616194</v>
+        <v>1269.492534775907</v>
       </c>
     </row>
     <row r="39">
@@ -7262,16 +7262,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N39" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>200.8329293182748</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="C40" t="n">
-        <v>200.8329293182748</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="D40" t="n">
-        <v>200.8329293182748</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="E40" t="n">
-        <v>200.8329293182748</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="G40" t="n">
         <v>53.94298182036445</v>
@@ -7338,46 +7338,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M40" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T40" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U40" t="n">
-        <v>500.820796875036</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V40" t="n">
-        <v>490.2500993552354</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W40" t="n">
-        <v>200.8329293182748</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="X40" t="n">
-        <v>200.8329293182748</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="Y40" t="n">
-        <v>200.8329293182748</v>
+        <v>149.5382038240418</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1422.14692331494</v>
+        <v>983.6384645338385</v>
       </c>
       <c r="C41" t="n">
-        <v>1422.14692331494</v>
+        <v>983.6384645338385</v>
       </c>
       <c r="D41" t="n">
-        <v>1422.14692331494</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="E41" t="n">
-        <v>1036.358670716696</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F41" t="n">
         <v>625.3727659270879</v>
@@ -7408,55 +7408,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U41" t="n">
-        <v>2267.209817970484</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V41" t="n">
-        <v>2267.209817970484</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="W41" t="n">
-        <v>2185.752013551832</v>
+        <v>1704.527073573123</v>
       </c>
       <c r="X41" t="n">
-        <v>1812.286255290752</v>
+        <v>1331.061315312043</v>
       </c>
       <c r="Y41" t="n">
-        <v>1422.14692331494</v>
+        <v>983.6384645338385</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
         <v>221.4284102424006</v>
@@ -7487,46 +7487,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J42" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>530.7441767280769</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="C43" t="n">
-        <v>361.80799380017</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="D43" t="n">
-        <v>211.6913543878343</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="E43" t="n">
-        <v>211.6913543878343</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="F43" t="n">
-        <v>211.6913543878343</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="G43" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M43" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T43" t="n">
-        <v>712.3926415583167</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U43" t="n">
-        <v>712.3926415583167</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V43" t="n">
-        <v>712.3926415583167</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="W43" t="n">
-        <v>712.3926415583167</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="X43" t="n">
-        <v>712.3926415583167</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="Y43" t="n">
-        <v>712.3926415583167</v>
+        <v>184.2708856551155</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1251.855211652197</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="C44" t="n">
-        <v>882.8926947117852</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D44" t="n">
         <v>882.8926947117852</v>
@@ -7648,13 +7648,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7678,22 +7678,22 @@
         <v>2697.149091018223</v>
       </c>
       <c r="T44" t="n">
-        <v>2697.149091018223</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U44" t="n">
-        <v>2697.149091018223</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V44" t="n">
-        <v>2697.149091018223</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W44" t="n">
-        <v>2402.06014195321</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="X44" t="n">
-        <v>2028.59438369213</v>
+        <v>1851.286880367297</v>
       </c>
       <c r="Y44" t="n">
-        <v>1638.455051716319</v>
+        <v>1461.147548391486</v>
       </c>
     </row>
     <row r="45">
@@ -7736,10 +7736,10 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1297.647259770169</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1851.373795869721</v>
       </c>
       <c r="O45" t="n">
         <v>2291.509718890065</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036446</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036446</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036446</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036446</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036446</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="G46" t="n">
         <v>53.94298182036446</v>
@@ -7812,46 +7812,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M46" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T46" t="n">
-        <v>500.8207968750361</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U46" t="n">
-        <v>500.8207968750361</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V46" t="n">
-        <v>246.1363086691492</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036446</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036446</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036446</v>
+        <v>149.5382038240418</v>
       </c>
     </row>
   </sheetData>
@@ -8300,13 +8300,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,10 +8543,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8771,16 +8771,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>152.2765682086142</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>394.5837460350002</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9014,19 +9014,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>303.0550130563539</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>394.5837460350002</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>194.3570488013777</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9734,7 +9734,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013773</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>194.3570488013782</v>
+        <v>194.3570488013773</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>194.3570488013782</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>194.3570488013777</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>194.3570488013777</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -22546,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>330.8829497359738</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22594,19 +22594,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>49.05096647893927</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22628,28 +22628,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>110.6309991249582</v>
+        <v>142.9094900234331</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22682,16 +22682,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22749,10 +22749,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22761,7 +22761,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22783,19 +22783,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>415.302737515135</v>
@@ -22834,10 +22834,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T5" t="n">
-        <v>20.80116313523413</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -23035,7 +23035,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>224.9573404408503</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23044,7 +23044,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23074,10 +23074,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>20.80116313523413</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23123,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,13 +23147,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>71.10541651401829</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -23162,7 +23162,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>181.0464140131996</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -23187,7 +23187,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>99.40903831289552</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>239.4980740029173</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>119.4918077118137</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23269,16 +23269,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>183.2128488163225</v>
+        <v>143.6340117900446</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>151.9681874521645</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>158.4714552042776</v>
       </c>
     </row>
     <row r="12">
@@ -23336,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>87.69233988828962</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>97.08446202703753</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23405,7 +23405,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>100.2996914017151</v>
       </c>
     </row>
     <row r="13">
@@ -23427,22 +23427,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923383</v>
+        <v>154.2024705022107</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>90.42516245839141</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>17.44799951871611</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23460,25 +23460,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>82.68702246598916</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V13" t="n">
-        <v>90.96025646459253</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>126.6879292296158</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>102.0308578193407</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>260.6756606197545</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>143.6340117900446</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.1345982389549</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>85.99893476574613</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23573,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>87.69233988828962</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>97.08446202703753</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>100.2996914017151</v>
       </c>
     </row>
     <row r="16">
@@ -23655,31 +23655,31 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>80.36219811415343</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923383</v>
+        <v>154.2024705022107</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853701</v>
+        <v>90.42516245839141</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>17.44799951871611</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23697,25 +23697,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491431</v>
+        <v>82.68702246598916</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>126.6879292296158</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23734,25 +23734,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>30.05841580448811</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>144.800557357096</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>145.1993891636096</v>
+        <v>120.1681237664918</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
@@ -23913,7 +23913,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
         <v>225.0351054580843</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>62.04180142778716</v>
       </c>
       <c r="D20" t="n">
-        <v>66.1292208488257</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24132,16 +24132,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>46.03982426181327</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
@@ -24150,7 +24150,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
@@ -24183,13 +24183,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>157.4983735401877</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>74.7442514401136</v>
+        <v>121.3209224644797</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24253,13 +24253,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
@@ -24268,7 +24268,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24366,28 +24366,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>96.50703242634965</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>11.11965843648079</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>229.7106506687478</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>53.98747366484901</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24609,22 +24609,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>78.24366890293328</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>3.147709480993882</v>
       </c>
       <c r="T28" t="n">
         <v>225.0351054580843</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24685,10 +24685,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>61.20534029139453</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>364.4148984696199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>24.37936745074293</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24849,10 +24849,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
@@ -24861,7 +24861,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>156.6036876198351</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24928,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>291.5750132227402</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>330.4266278558642</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,31 +25074,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>120.1051426060687</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25131,7 +25131,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>66.53420395408909</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>170.3955891659156</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>73.7603874443048</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25317,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>54.65715509799982</v>
+        <v>64.16285195963687</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25329,13 +25329,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25447,19 +25447,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>15.41749512098119</v>
+        <v>346.4177784134396</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25560,10 +25560,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>72.67053247541037</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
@@ -25572,7 +25572,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>241.6726527792255</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25633,13 +25633,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25675,10 +25675,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
         <v>216.4483203576578</v>
@@ -25687,16 +25687,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>268.5977423429472</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>42.28931638563137</v>
       </c>
     </row>
     <row r="42">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,16 +25800,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>38.28517746264737</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>209.4561262364479</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>164.9445781412602</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25912,22 +25912,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>57.10290914305068</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>72.67053247541037</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
@@ -26046,7 +26046,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>96.25160475629411</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>456941.8494611643</v>
+        <v>456941.8494611642</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>795169.6775433336</v>
+        <v>476685.4141087439</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>795169.6775433335</v>
+        <v>476685.4141087439</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>795169.6775433335</v>
+        <v>795169.6775433336</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>795169.6775433335</v>
+        <v>795169.6775433337</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>795169.6775433336</v>
+        <v>795169.6775433337</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>795169.6775433336</v>
+        <v>795169.6775433337</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>795169.6775433336</v>
+        <v>795169.6775433335</v>
       </c>
     </row>
     <row r="15">
@@ -26322,10 +26322,10 @@
         <v>124620.5043984993</v>
       </c>
       <c r="E2" t="n">
-        <v>216864.4575118182</v>
+        <v>130005.1129387483</v>
       </c>
       <c r="F2" t="n">
-        <v>216864.4575118182</v>
+        <v>130005.1129387483</v>
       </c>
       <c r="G2" t="n">
         <v>216864.4575118182</v>
@@ -26334,10 +26334,10 @@
         <v>216864.4575118182</v>
       </c>
       <c r="I2" t="n">
+        <v>216864.4575118181</v>
+      </c>
+      <c r="J2" t="n">
         <v>216864.4575118182</v>
-      </c>
-      <c r="J2" t="n">
-        <v>216864.4575118183</v>
       </c>
       <c r="K2" t="n">
         <v>216864.4575118182</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>432846.174042996</v>
+        <v>25125.73635942195</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>388459.5166734359</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>107973.3606740581</v>
+        <v>5539.242983423047</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>98918.44776315404</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>179.5324977039669</v>
       </c>
       <c r="E4" t="n">
-        <v>513.1084990597035</v>
+        <v>196.6176664714449</v>
       </c>
       <c r="F4" t="n">
-        <v>513.1084990597035</v>
+        <v>196.6176664714449</v>
       </c>
       <c r="G4" t="n">
         <v>513.1084990597035</v>
@@ -26453,13 +26453,13 @@
         <v>513.1084990597035</v>
       </c>
       <c r="N4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="O4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="P4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
     </row>
     <row r="5">
@@ -26478,13 +26478,13 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340946</v>
+        <v>16506.80740683336</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340946</v>
+        <v>16506.80740683336</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="H5" t="n">
         <v>49231.47806340946</v>
@@ -26496,19 +26496,19 @@
         <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="L5" t="n">
         <v>49231.47806340947</v>
       </c>
-      <c r="L5" t="n">
-        <v>49231.47806340946</v>
-      </c>
       <c r="M5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="N5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="P5" t="n">
         <v>49231.47806340947</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-16827.73901455454</v>
+        <v>-5831.529456518112</v>
       </c>
       <c r="C6" t="n">
-        <v>63941.69251699319</v>
+        <v>74937.9020750296</v>
       </c>
       <c r="D6" t="n">
-        <v>63941.69251699319</v>
+        <v>74937.9020750296</v>
       </c>
       <c r="E6" t="n">
-        <v>-271794.7168394661</v>
+        <v>86990.04783428586</v>
       </c>
       <c r="F6" t="n">
-        <v>161051.4572035298</v>
+        <v>112115.7841937078</v>
       </c>
       <c r="G6" t="n">
-        <v>161051.4572035297</v>
+        <v>-221946.4870986688</v>
       </c>
       <c r="H6" t="n">
-        <v>161051.4572035298</v>
+        <v>166513.0295747671</v>
       </c>
       <c r="I6" t="n">
-        <v>161051.4572035297</v>
+        <v>166513.029574767</v>
       </c>
       <c r="J6" t="n">
-        <v>97991.51460442366</v>
+        <v>103453.0869756608</v>
       </c>
       <c r="K6" t="n">
-        <v>161051.4572035298</v>
+        <v>166513.029574767</v>
       </c>
       <c r="L6" t="n">
-        <v>161051.4572035298</v>
+        <v>166513.0295747671</v>
       </c>
       <c r="M6" t="n">
-        <v>53078.09652947171</v>
+        <v>160973.786591344</v>
       </c>
       <c r="N6" t="n">
-        <v>161051.4572035298</v>
+        <v>166513.0295747671</v>
       </c>
       <c r="O6" t="n">
-        <v>161051.4572035297</v>
+        <v>67594.58181161298</v>
       </c>
       <c r="P6" t="n">
-        <v>161051.4572035297</v>
+        <v>166513.0295747671</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>23.01338268678962</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170866</v>
+        <v>23.01338268678962</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
     </row>
     <row r="4">
@@ -26798,13 +26798,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545556</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545556</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="H4" t="n">
         <v>674.2872727545556</v>
@@ -26816,19 +26816,19 @@
         <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="L4" t="n">
         <v>674.2872727545557</v>
       </c>
-      <c r="L4" t="n">
-        <v>674.2872727545556</v>
-      </c>
       <c r="M4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="P4" t="n">
         <v>674.2872727545557</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>23.01338268678962</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>354.7302815302971</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>433.2729838768965</v>
+        <v>22.22774507400783</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>411.0452388028888</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768965</v>
+        <v>22.22774507400783</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>411.0452388028889</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768965</v>
+        <v>22.22774507400783</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>411.0452388028888</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340045</v>
+        <v>0.09251611130367678</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935140999</v>
+        <v>0.94748062488878</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554465</v>
+        <v>3.566727381035002</v>
       </c>
       <c r="J11" t="n">
-        <v>128.8865178727436</v>
+        <v>7.852189301760444</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>11.76839629324508</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>14.59973623455499</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>16.24501962895175</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338304</v>
+        <v>16.50788103019332</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119865</v>
+        <v>15.58792394841738</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954666</v>
+        <v>13.30393245060786</v>
       </c>
       <c r="Q11" t="n">
-        <v>163.9882055044137</v>
+        <v>9.990699214544932</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633796</v>
+        <v>5.811515176679592</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>2.108210886332537</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473552</v>
+        <v>0.4049892772318453</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.00740128890429414</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.04950048351498144</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188913</v>
+        <v>0.4780704592104787</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>1.704292963125458</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396475</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649102</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>176.4169820478007</v>
+        <v>10.74790103688226</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983122</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>91.88325107529209</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923047</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>9.452421277523079</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639065</v>
+        <v>6.318693299210613</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034981</v>
+        <v>3.073372125605603</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131472</v>
+        <v>0.9194497705523959</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>0.1995216857467891</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.00325661075756457</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.681177099407861</v>
+        <v>0.04149954254994848</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644441</v>
+        <v>0.3689686601259058</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492004</v>
+        <v>1.248004425047542</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>2.934017658281358</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302238</v>
+        <v>4.821492307166741</v>
       </c>
       <c r="L13" t="n">
-        <v>101.2724571246924</v>
+        <v>6.169850171471433</v>
       </c>
       <c r="M13" t="n">
-        <v>106.777606591725</v>
+        <v>6.505241928988742</v>
       </c>
       <c r="N13" t="n">
-        <v>104.2386737666594</v>
+        <v>6.35056181584803</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175842</v>
+        <v>5.865771705150903</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383799</v>
+        <v>5.019181037131949</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678007</v>
+        <v>3.475020785705232</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>1.865970340473138</v>
       </c>
       <c r="S13" t="n">
-        <v>11.87105908695336</v>
+        <v>0.723223846075011</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197223</v>
+        <v>0.1773162272588708</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.002263611411815374</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340045</v>
+        <v>0.09251611130367679</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935140999</v>
+        <v>0.9474806248887802</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554465</v>
+        <v>3.566727381035003</v>
       </c>
       <c r="J14" t="n">
-        <v>128.8865178727436</v>
+        <v>7.852189301760445</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>11.76839629324509</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>14.59973623455499</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>16.24501962895175</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338304</v>
+        <v>16.50788103019332</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119865</v>
+        <v>15.58792394841739</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954666</v>
+        <v>13.30393245060786</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.9882055044137</v>
+        <v>9.990699214544934</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633796</v>
+        <v>5.811515176679593</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>2.108210886332537</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473552</v>
+        <v>0.4049892772318454</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.007401288904294142</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.04950048351498144</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188913</v>
+        <v>0.4780704592104788</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>1.704292963125458</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396475</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649102</v>
+        <v>7.993242550750316</v>
       </c>
       <c r="L15" t="n">
-        <v>176.4169820478007</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983122</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>211.31907117367</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923047</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034981</v>
+        <v>3.073372125605604</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131472</v>
+        <v>0.919449770552396</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>0.1995216857467892</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.00325661075756457</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.681177099407861</v>
+        <v>0.04149954254994849</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644441</v>
+        <v>0.3689686601259059</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492004</v>
+        <v>1.248004425047542</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>2.934017658281358</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302238</v>
+        <v>4.821492307166742</v>
       </c>
       <c r="L16" t="n">
-        <v>101.2724571246924</v>
+        <v>6.169850171471434</v>
       </c>
       <c r="M16" t="n">
-        <v>106.777606591725</v>
+        <v>6.505241928988743</v>
       </c>
       <c r="N16" t="n">
-        <v>104.2386737666594</v>
+        <v>6.350561815848031</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175842</v>
+        <v>5.865771705150904</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383799</v>
+        <v>5.01918103713195</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678007</v>
+        <v>3.475020785705232</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>1.865970340473138</v>
       </c>
       <c r="S16" t="n">
-        <v>11.87105908695336</v>
+        <v>0.7232238460750111</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197223</v>
+        <v>0.1773162272588708</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.002263611411815375</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,19 +32232,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L17" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
@@ -32259,13 +32259,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I18" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32332,22 +32332,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K19" t="n">
         <v>79.14039391302239</v>
@@ -32408,16 +32408,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P19" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
@@ -32469,19 +32469,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L20" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32496,13 +32496,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I21" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32560,31 +32560,31 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M21" t="n">
-        <v>86.43447689993462</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N21" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O21" t="n">
-        <v>193.3156655923047</v>
+        <v>177.5954266578332</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q21" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32645,16 +32645,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -32706,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L23" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32733,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I24" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K24" t="n">
-        <v>11.76595806653259</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L24" t="n">
         <v>176.4169820478007</v>
@@ -32806,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32882,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32943,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L26" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32970,13 +32970,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I27" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33037,28 +33037,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N27" t="n">
-        <v>91.88325107529209</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O27" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q27" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33119,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33180,19 +33180,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L29" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33207,13 +33207,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I30" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33280,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33356,16 +33356,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33417,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L32" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33444,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33517,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33593,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33654,19 +33654,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L35" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33681,13 +33681,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I36" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33754,22 +33754,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33830,16 +33830,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33891,19 +33891,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33915,16 +33915,16 @@
         <v>218.3719038954667</v>
       </c>
       <c r="Q38" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I39" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33982,7 +33982,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M39" t="n">
-        <v>205.8702969983122</v>
+        <v>86.4344768999344</v>
       </c>
       <c r="N39" t="n">
         <v>211.31907117367</v>
@@ -33991,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34067,16 +34067,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34128,19 +34128,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34155,13 +34155,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K42" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653279</v>
       </c>
       <c r="L42" t="n">
         <v>176.4169820478007</v>
@@ -34228,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34304,16 +34304,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34365,19 +34365,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
@@ -34392,13 +34392,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34456,31 +34456,31 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M45" t="n">
-        <v>205.8702969983122</v>
+        <v>190.1500580638413</v>
       </c>
       <c r="N45" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O45" t="n">
-        <v>177.5954266578339</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I46" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K46" t="n">
         <v>79.14039391302239</v>
@@ -34541,16 +34541,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P46" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
@@ -35020,13 +35020,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35035,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
@@ -35263,10 +35263,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343419</v>
+        <v>115.8239578194293</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435301</v>
+        <v>196.4945358150182</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060965</v>
+        <v>235.4123198945115</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492236</v>
+        <v>224.4417418455866</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530451</v>
+        <v>166.289893789476</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116797</v>
+        <v>103.869644866821</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.9975062898689</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>14.4351292342552</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713857</v>
+        <v>243.0338665604673</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>439.8839133355123</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245897</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>193.94078250313</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>76.41420694903819</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713953</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>128.8624823850085</v>
+        <v>33.75987543178757</v>
       </c>
       <c r="M13" t="n">
-        <v>146.3614835535656</v>
+        <v>46.08911889082933</v>
       </c>
       <c r="N13" t="n">
-        <v>148.370846145888</v>
+        <v>50.48273419507662</v>
       </c>
       <c r="O13" t="n">
-        <v>120.8664146557981</v>
+        <v>30.45089961919058</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873148</v>
+        <v>2.297740302025437</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>115.8239578194293</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>196.4945358150182</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>235.4123198945115</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>224.4417418455866</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530451</v>
+        <v>166.289893789476</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116797</v>
+        <v>103.869644866821</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.9975062898689</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031298</v>
+        <v>134.6170405889699</v>
       </c>
       <c r="L15" t="n">
-        <v>408.7029475713857</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262938</v>
+        <v>160.9209791343356</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245897</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>54.37527471535621</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713953</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>128.8624823850085</v>
+        <v>33.75987543178757</v>
       </c>
       <c r="M16" t="n">
-        <v>146.3614835535656</v>
+        <v>46.08911889082933</v>
       </c>
       <c r="N16" t="n">
-        <v>148.370846145888</v>
+        <v>50.48273419507662</v>
       </c>
       <c r="O16" t="n">
-        <v>120.8664146557981</v>
+        <v>30.45089961919058</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873148</v>
+        <v>2.297740302025438</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K17" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O17" t="n">
         <v>406.5635087530452</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35974,13 +35974,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
         <v>54.37527471535621</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K20" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36208,19 +36208,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M21" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245898</v>
+        <v>428.8615014901183</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K23" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K24" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36448,13 +36448,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q24" t="n">
         <v>173.8110948137341</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K26" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36685,16 +36685,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K29" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36922,16 +36922,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K32" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37159,13 +37159,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
         <v>54.37527471535621</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37396,16 +37396,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37563,7 +37563,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37630,19 +37630,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37870,16 +37870,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O44" t="n">
         <v>406.5635087530452</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38104,16 +38104,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
-        <v>529.4413268262938</v>
+        <v>513.7210878918229</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O45" t="n">
-        <v>428.8615014901189</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
         <v>70.09551364982758</v>
